--- a/test-dynamic-pivot.xlsx
+++ b/test-dynamic-pivot.xlsx
@@ -40,133 +40,515 @@
 </styleSheet>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition563281.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="563281" recordCount="100" refreshOnLoad="1">
+<file path=xl/pivotCache/pivotCacheDefinition577491.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="577491" recordCount="500" refreshOnLoad="1">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:D501" sheet="Sheet1"/>
+    <worksheetSource ref="A1:D501" sheet="銷售資料"/>
   </cacheSource>
   <cacheFields count="4">
-    <cacheField name="產品" numFmtId="0" formula="0" sqlType="0" hierarchy="0" level="0" databaseField="0" mappingCount="0" olap="0">
-      <sharedItems count="4" containsSemiMixedTypes="0" containsString="0" containsNumber="0" containsInteger="0" containsNonDate="0" containsDate="0" containsBlank="0" mixedTypes="0" minDate="1900-01-01T00:00:00" maxDate="9999-12-31T23:59:59" minNumber="0" maxNumber="0" minInteger="0" maxInteger="0" containsLocal="0" containsRemote="0" remote="0">
+    <cacheField name="產品" numFmtId="0" formula="0" sqlType="1" hierarchy="0" level="0" databaseField="0" mappingCount="0" olap="0">
+      <sharedItems count="4" containsSemiMixedTypes="0" containsString="1" containsNumber="0" containsInteger="0" containsNonDate="1" containsDate="0" containsBlank="0" mixedTypes="1" minDate="1900-01-01T00:00:00" maxDate="9999-12-31T23:59:59" minNumber="0" maxNumber="0" minInteger="0" maxInteger="0" containsLocal="0" containsRemote="0" remote="0">
         <s v="筆記型電腦"/>
         <s v="平板電腦"/>
         <s v="智慧型手機"/>
         <s v="耳機"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="地區" numFmtId="0" formula="0" sqlType="0" hierarchy="0" level="0" databaseField="0" mappingCount="0" olap="0">
-      <sharedItems count="4" containsSemiMixedTypes="0" containsString="0" containsNumber="0" containsInteger="0" containsNonDate="0" containsDate="0" containsBlank="0" mixedTypes="0" minDate="1900-01-01T00:00:00" maxDate="9999-12-31T23:59:59" minNumber="0" maxNumber="0" minInteger="0" maxInteger="0" containsLocal="0" containsRemote="0" remote="0">
+    <cacheField name="地區" numFmtId="0" formula="0" sqlType="1" hierarchy="0" level="0" databaseField="0" mappingCount="0" olap="0">
+      <sharedItems count="4" containsSemiMixedTypes="0" containsString="1" containsNumber="0" containsInteger="0" containsNonDate="1" containsDate="0" containsBlank="0" mixedTypes="1" minDate="1900-01-01T00:00:00" maxDate="9999-12-31T23:59:59" minNumber="0" maxNumber="0" minInteger="0" maxInteger="0" containsLocal="0" containsRemote="0" remote="0">
         <s v="北區"/>
         <s v="中區"/>
         <s v="南區"/>
         <s v="東區"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="銷售額" numFmtId="0" formula="0" sqlType="0" hierarchy="0" level="0" databaseField="0" mappingCount="0" olap="0">
-      <sharedItems count="99" containsSemiMixedTypes="0" containsString="0" containsNumber="0" containsInteger="0" containsNonDate="0" containsDate="0" containsBlank="0" mixedTypes="0" minDate="1900-01-01T00:00:00" maxDate="9999-12-31T23:59:59" minNumber="0" maxNumber="0" minInteger="0" maxInteger="0" containsLocal="0" containsRemote="0" remote="0">
-        <n v="3320"/>
-        <n v="6563"/>
-        <n v="5125"/>
-        <n v="2771"/>
+    <cacheField name="銷售額" numFmtId="0" formula="0" sqlType="2" hierarchy="0" level="0" databaseField="0" mappingCount="0" olap="0">
+      <sharedItems count="481" containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" containsNonDate="1" containsDate="0" containsBlank="0" mixedTypes="1" minDate="1900-01-01T00:00:00" maxDate="9999-12-31T23:59:59" minNumber="1002" maxNumber="10998" minInteger="1002" maxInteger="10998" containsLocal="0" containsRemote="0" remote="0">
+        <n v="7229"/>
+        <n v="5123"/>
+        <n v="4952"/>
+        <n v="6606"/>
+        <n v="2549"/>
+        <n v="6546"/>
+        <n v="8955"/>
+        <n v="9027"/>
+        <n v="2625"/>
+        <n v="1039"/>
+        <n v="2167"/>
+        <n v="6471"/>
+        <n v="1661"/>
+        <n v="2053"/>
+        <n v="5403"/>
+        <n v="2914"/>
+        <n v="6758"/>
+        <n v="1380"/>
+        <n v="1306"/>
+        <n v="1999"/>
+        <n v="2127"/>
+        <n v="6578"/>
+        <n v="3450"/>
+        <n v="5482"/>
+        <n v="2087"/>
+        <n v="1936"/>
+        <n v="2239"/>
+        <n v="9341"/>
+        <n v="5130"/>
+        <n v="10087"/>
+        <n v="8888"/>
+        <n v="9468"/>
+        <n v="7078"/>
+        <n v="8861"/>
+        <n v="8548"/>
+        <n v="1864"/>
+        <n v="2990"/>
+        <n v="4875"/>
+        <n v="8083"/>
+        <n v="4059"/>
+        <n v="2244"/>
+        <n v="7820"/>
+        <n v="4581"/>
+        <n v="5495"/>
+        <n v="4568"/>
+        <n v="7829"/>
+        <n v="7529"/>
+        <n v="10974"/>
+        <n v="1888"/>
+        <n v="4351"/>
+        <n v="9681"/>
+        <n v="6083"/>
+        <n v="6198"/>
+        <n v="9491"/>
+        <n v="2380"/>
+        <n v="2962"/>
+        <n v="1843"/>
+        <n v="8393"/>
+        <n v="4466"/>
+        <n v="10714"/>
+        <n v="4437"/>
+        <n v="5239"/>
+        <n v="8258"/>
+        <n v="4567"/>
+        <n v="4797"/>
+        <n v="1135"/>
+        <n v="7615"/>
+        <n v="1271"/>
+        <n v="2657"/>
+        <n v="4850"/>
+        <n v="1331"/>
+        <n v="3488"/>
+        <n v="5101"/>
+        <n v="6288"/>
+        <n v="9976"/>
+        <n v="3817"/>
+        <n v="7379"/>
+        <n v="8168"/>
+        <n v="8418"/>
+        <n v="8024"/>
+        <n v="3548"/>
+        <n v="8248"/>
+        <n v="10470"/>
+        <n v="8684"/>
+        <n v="4184"/>
+        <n v="4402"/>
+        <n v="3046"/>
+        <n v="5814"/>
+        <n v="6742"/>
+        <n v="2648"/>
+        <n v="9470"/>
+        <n v="10579"/>
+        <n v="10570"/>
+        <n v="10285"/>
+        <n v="2391"/>
+        <n v="8239"/>
+        <n v="2542"/>
+        <n v="1966"/>
+        <n v="6958"/>
+        <n v="2050"/>
+        <n v="4841"/>
+        <n v="10131"/>
+        <n v="3911"/>
+        <n v="8253"/>
+        <n v="7129"/>
+        <n v="6640"/>
+        <n v="9997"/>
+        <n v="9879"/>
+        <n v="2464"/>
+        <n v="1825"/>
+        <n v="7032"/>
+        <n v="3138"/>
+        <n v="1449"/>
+        <n v="2574"/>
+        <n v="9203"/>
+        <n v="9514"/>
+        <n v="8815"/>
+        <n v="10599"/>
+        <n v="8368"/>
+        <n v="4152"/>
+        <n v="2938"/>
+        <n v="2488"/>
+        <n v="1498"/>
+        <n v="2336"/>
+        <n v="6405"/>
+        <n v="4032"/>
+        <n v="2703"/>
+        <n v="7421"/>
+        <n v="7368"/>
+        <n v="1638"/>
+        <n v="5719"/>
+        <n v="5859"/>
+        <n v="10989"/>
+        <n v="4398"/>
+        <n v="10922"/>
+        <n v="3065"/>
+        <n v="6385"/>
+        <n v="8727"/>
+        <n v="1877"/>
+        <n v="4522"/>
+        <n v="1765"/>
+        <n v="3877"/>
+        <n v="1352"/>
         <n v="3368"/>
-        <n v="10831"/>
+        <n v="8343"/>
+        <n v="3438"/>
+        <n v="8737"/>
+        <n v="9416"/>
+        <n v="4935"/>
+        <n v="2105"/>
+        <n v="4104"/>
+        <n v="5068"/>
+        <n v="5755"/>
+        <n v="9295"/>
+        <n v="2158"/>
+        <n v="6196"/>
+        <n v="10811"/>
+        <n v="8289"/>
+        <n v="4758"/>
+        <n v="4923"/>
+        <n v="1002"/>
+        <n v="6705"/>
+        <n v="1914"/>
+        <n v="5929"/>
+        <n v="7098"/>
+        <n v="1904"/>
+        <n v="9187"/>
+        <n v="6667"/>
+        <n v="6987"/>
+        <n v="8638"/>
+        <n v="10290"/>
+        <n v="5442"/>
+        <n v="2297"/>
+        <n v="3150"/>
+        <n v="2509"/>
+        <n v="5439"/>
+        <n v="5684"/>
+        <n v="4224"/>
+        <n v="3630"/>
+        <n v="8843"/>
+        <n v="1982"/>
+        <n v="1724"/>
+        <n v="10150"/>
+        <n v="1204"/>
+        <n v="4046"/>
+        <n v="2751"/>
+        <n v="8826"/>
+        <n v="10832"/>
+        <n v="8940"/>
+        <n v="9885"/>
+        <n v="1308"/>
+        <n v="4246"/>
+        <n v="5936"/>
+        <n v="2148"/>
+        <n v="9015"/>
+        <n v="9182"/>
+        <n v="10622"/>
+        <n v="7102"/>
+        <n v="4324"/>
+        <n v="9789"/>
+        <n v="8864"/>
+        <n v="10741"/>
+        <n v="8231"/>
+        <n v="4556"/>
+        <n v="4453"/>
+        <n v="1166"/>
+        <n v="8174"/>
+        <n v="3571"/>
+        <n v="2484"/>
+        <n v="9735"/>
+        <n v="3535"/>
+        <n v="3229"/>
+        <n v="1773"/>
+        <n v="4217"/>
+        <n v="3160"/>
+        <n v="2746"/>
+        <n v="4590"/>
+        <n v="6928"/>
+        <n v="1112"/>
+        <n v="7988"/>
+        <n v="8522"/>
+        <n v="10432"/>
+        <n v="1836"/>
+        <n v="9374"/>
+        <n v="10490"/>
+        <n v="9624"/>
+        <n v="1769"/>
+        <n v="9340"/>
+        <n v="9291"/>
+        <n v="10620"/>
+        <n v="1987"/>
+        <n v="2749"/>
+        <n v="10617"/>
+        <n v="2788"/>
+        <n v="3409"/>
+        <n v="6428"/>
+        <n v="7127"/>
+        <n v="3308"/>
+        <n v="10980"/>
+        <n v="1552"/>
+        <n v="7501"/>
+        <n v="1321"/>
+        <n v="9537"/>
+        <n v="10373"/>
+        <n v="1503"/>
+        <n v="10112"/>
+        <n v="1631"/>
+        <n v="9501"/>
+        <n v="2272"/>
+        <n v="8906"/>
+        <n v="10664"/>
+        <n v="3435"/>
         <n v="2120"/>
-        <n v="9281"/>
-        <n v="10298"/>
-        <n v="7926"/>
-        <n v="1945"/>
-        <n v="3641"/>
-        <n v="7824"/>
-        <n v="2377"/>
-        <n v="9381"/>
-        <n v="5163"/>
-        <n v="8146"/>
-        <n v="7111"/>
-        <n v="10037"/>
-        <n v="6311"/>
+        <n v="4081"/>
+        <n v="1830"/>
+        <n v="10505"/>
+        <n v="2313"/>
+        <n v="7564"/>
+        <n v="5334"/>
+        <n v="4989"/>
+        <n v="3221"/>
+        <n v="1044"/>
+        <n v="5214"/>
+        <n v="10866"/>
+        <n v="10605"/>
+        <n v="4159"/>
+        <n v="6994"/>
+        <n v="1316"/>
+        <n v="10236"/>
+        <n v="4979"/>
+        <n v="4680"/>
+        <n v="3252"/>
+        <n v="6391"/>
+        <n v="4883"/>
+        <n v="8438"/>
+        <n v="9822"/>
+        <n v="10768"/>
+        <n v="9186"/>
+        <n v="5562"/>
+        <n v="5452"/>
+        <n v="1555"/>
+        <n v="8462"/>
+        <n v="10167"/>
+        <n v="4597"/>
+        <n v="5033"/>
+        <n v="1840"/>
+        <n v="2461"/>
+        <n v="7646"/>
+        <n v="2432"/>
+        <n v="10856"/>
+        <n v="3880"/>
+        <n v="1782"/>
+        <n v="9864"/>
+        <n v="6294"/>
+        <n v="4690"/>
+        <n v="6841"/>
+        <n v="1941"/>
+        <n v="3689"/>
+        <n v="3541"/>
+        <n v="5219"/>
+        <n v="3509"/>
+        <n v="9419"/>
+        <n v="2048"/>
+        <n v="5370"/>
+        <n v="2742"/>
+        <n v="4879"/>
+        <n v="1404"/>
+        <n v="6543"/>
+        <n v="9113"/>
+        <n v="2183"/>
+        <n v="9773"/>
+        <n v="10816"/>
+        <n v="4051"/>
+        <n v="3665"/>
+        <n v="10030"/>
+        <n v="1863"/>
+        <n v="2626"/>
+        <n v="4566"/>
+        <n v="6605"/>
+        <n v="10754"/>
+        <n v="7703"/>
+        <n v="5666"/>
+        <n v="9071"/>
+        <n v="1283"/>
+        <n v="7000"/>
+        <n v="3987"/>
+        <n v="8863"/>
+        <n v="9115"/>
+        <n v="8724"/>
+        <n v="9639"/>
+        <n v="2074"/>
+        <n v="10329"/>
+        <n v="1261"/>
+        <n v="10119"/>
+        <n v="8002"/>
+        <n v="7057"/>
+        <n v="1207"/>
+        <n v="1119"/>
+        <n v="5453"/>
+        <n v="10772"/>
+        <n v="2253"/>
+        <n v="5649"/>
+        <n v="7696"/>
+        <n v="7994"/>
+        <n v="9359"/>
+        <n v="2003"/>
+        <n v="9033"/>
+        <n v="2090"/>
+        <n v="2373"/>
+        <n v="2306"/>
+        <n v="8453"/>
+        <n v="10965"/>
+        <n v="2236"/>
+        <n v="9529"/>
+        <n v="3283"/>
+        <n v="7207"/>
+        <n v="5992"/>
+        <n v="1499"/>
+        <n v="5637"/>
+        <n v="5212"/>
+        <n v="3915"/>
+        <n v="3464"/>
+        <n v="7632"/>
+        <n v="6253"/>
+        <n v="8981"/>
+        <n v="8895"/>
+        <n v="5280"/>
+        <n v="8230"/>
+        <n v="8442"/>
+        <n v="2247"/>
+        <n v="1300"/>
+        <n v="2410"/>
+        <n v="5423"/>
+        <n v="8776"/>
+        <n v="8791"/>
+        <n v="2932"/>
+        <n v="2849"/>
+        <n v="3267"/>
+        <n v="8318"/>
+        <n v="10998"/>
+        <n v="10370"/>
+        <n v="3974"/>
+        <n v="2915"/>
+        <n v="7028"/>
+        <n v="10296"/>
+        <n v="1256"/>
+        <n v="8613"/>
+        <n v="6929"/>
+        <n v="4141"/>
+        <n v="6725"/>
+        <n v="5206"/>
+        <n v="7846"/>
+        <n v="9570"/>
+        <n v="2618"/>
+        <n v="10129"/>
+        <n v="5397"/>
+        <n v="2411"/>
+        <n v="8205"/>
+        <n v="9274"/>
+        <n v="8903"/>
+        <n v="8207"/>
+        <n v="9087"/>
+        <n v="7893"/>
         <n v="8978"/>
-        <n v="6467"/>
-        <n v="6309"/>
-        <n v="7637"/>
-        <n v="8657"/>
-        <n v="8477"/>
-        <n v="2589"/>
-        <n v="7192"/>
-        <n v="3569"/>
-        <n v="2705"/>
-        <n v="1954"/>
-        <n v="10659"/>
-        <n v="5237"/>
-        <n v="3113"/>
-        <n v="9325"/>
-        <n v="1920"/>
-        <n v="3495"/>
-        <n v="2935"/>
-        <n v="1495"/>
-        <n v="2311"/>
-        <n v="10892"/>
-        <n v="10720"/>
-        <n v="1114"/>
-        <n v="10209"/>
-        <n v="10589"/>
+        <n v="8704"/>
+        <n v="7242"/>
+        <n v="8049"/>
+        <n v="4345"/>
+        <n v="8624"/>
+        <n v="7801"/>
+        <n v="9749"/>
+        <n v="8914"/>
+        <n v="4251"/>
+        <n v="6728"/>
+        <n v="3480"/>
+        <n v="6347"/>
+        <n v="2552"/>
+        <n v="8449"/>
+        <n v="8664"/>
+        <n v="3053"/>
         <n v="9223"/>
-        <n v="8804"/>
-        <n v="6712"/>
-        <n v="1430"/>
-        <n v="7998"/>
-        <n v="3945"/>
-        <n v="9933"/>
-        <n v="8640"/>
-        <n v="3636"/>
-        <n v="6483"/>
-        <n v="4061"/>
-        <n v="3900"/>
-        <n v="8548"/>
-        <n v="2650"/>
-        <n v="3424"/>
-        <n v="6536"/>
-        <n v="4982"/>
-        <n v="1246"/>
-        <n v="1397"/>
-        <n v="7679"/>
-        <n v="7588"/>
-        <n v="1174"/>
-        <n v="8867"/>
-        <n v="2979"/>
-        <n v="3276"/>
-        <n v="7263"/>
-        <n v="1243"/>
-        <n v="7811"/>
-        <n v="1868"/>
-        <n v="9051"/>
-        <n v="9851"/>
-        <n v="10683"/>
-        <n v="1779"/>
-        <n v="3494"/>
-        <n v="9850"/>
-        <n v="10709"/>
-        <n v="4538"/>
-        <n v="9748"/>
-        <n v="6900"/>
-        <n v="5918"/>
-        <n v="3281"/>
-        <n v="3275"/>
-        <n v="3845"/>
-        <n v="1781"/>
-        <n v="4264"/>
-        <n v="3312"/>
-        <n v="9838"/>
-        <n v="5907"/>
-        <n v="3498"/>
-        <n v="4144"/>
-        <n v="5356"/>
-        <n v="10363"/>
-        <n v="2259"/>
-        <n v="7668"/>
+        <n v="10221"/>
+        <n v="9248"/>
+        <n v="10646"/>
+        <n v="10267"/>
+        <n v="10326"/>
+        <n v="2944"/>
+        <n v="9064"/>
+        <n v="8064"/>
+        <n v="8347"/>
+        <n v="9098"/>
+        <n v="6377"/>
+        <n v="10955"/>
+        <n v="5856"/>
+        <n v="5797"/>
+        <n v="3379"/>
+        <n v="7158"/>
+        <n v="2252"/>
+        <n v="3629"/>
+        <n v="8741"/>
+        <n v="1532"/>
+        <n v="3016"/>
+        <n v="3837"/>
+        <n v="9371"/>
+        <n v="1168"/>
+        <n v="8469"/>
+        <n v="10752"/>
+        <n v="4167"/>
+        <n v="8572"/>
+        <n v="4232"/>
+        <n v="10694"/>
+        <n v="2417"/>
+        <n v="1139"/>
+        <n v="7175"/>
+        <n v="4867"/>
+        <n v="8884"/>
+        <n v="5788"/>
+        <n v="2654"/>
+        <n v="10248"/>
+        <n v="10794"/>
+        <n v="10541"/>
+        <n v="3274"/>
+        <n v="8196"/>
+        <n v="1428"/>
+        <n v="4501"/>
+        <n v="8555"/>
+        <n v="1065"/>
+        <n v="3354"/>
+        <n v="1703"/>
+        <n v="5348"/>
+        <n v="7977"/>
+        <n v="2492"/>
+        <n v="5411"/>
+        <n v="6531"/>
+        <n v="7375"/>
+        <n v="9729"/>
+        <n v="7091"/>
+        <n v="10145"/>
+        <n v="9828"/>
+        <n v="4178"/>
+        <n v="4114"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="月份" numFmtId="0" formula="0" sqlType="0" hierarchy="0" level="0" databaseField="0" mappingCount="0" olap="0">
-      <sharedItems count="4" containsSemiMixedTypes="0" containsString="0" containsNumber="0" containsInteger="0" containsNonDate="0" containsDate="0" containsBlank="0" mixedTypes="0" minDate="1900-01-01T00:00:00" maxDate="9999-12-31T23:59:59" minNumber="0" maxNumber="0" minInteger="0" maxInteger="0" containsLocal="0" containsRemote="0" remote="0">
+    <cacheField name="月份" numFmtId="0" formula="0" sqlType="1" hierarchy="0" level="0" databaseField="0" mappingCount="0" olap="0">
+      <sharedItems count="4" containsSemiMixedTypes="0" containsString="1" containsNumber="0" containsInteger="0" containsNonDate="1" containsDate="0" containsBlank="0" mixedTypes="1" minDate="1900-01-01T00:00:00" maxDate="9999-12-31T23:59:59" minNumber="0" maxNumber="0" minInteger="0" maxInteger="0" containsLocal="0" containsRemote="0" remote="0">
         <s v="1月"/>
         <s v="2月"/>
         <s v="3月"/>
@@ -174,618 +556,3021 @@
       </sharedItems>
     </cacheField>
   </cacheFields>
-  <cacheRecords count="100">
-    <r>
-      <s v="筆記型電腦"/>
-      <s v="北區"/>
-      <s v="1月"/>
-      <n v="3320"/>
-    </r>
-    <r>
-      <s v="平板電腦"/>
-      <s v="中區"/>
-      <s v="2月"/>
-      <n v="6563"/>
-    </r>
-    <r>
-      <s v="智慧型手機"/>
-      <s v="南區"/>
-      <s v="3月"/>
-      <n v="5125"/>
-    </r>
-    <r>
-      <s v="耳機"/>
-      <s v="東區"/>
-      <s v="4月"/>
-      <n v="2771"/>
-    </r>
-    <r>
-      <s v="筆記型電腦"/>
-      <s v="北區"/>
-      <s v="1月"/>
-      <n v="3368"/>
-    </r>
-    <r>
-      <s v="平板電腦"/>
-      <s v="中區"/>
-      <s v="2月"/>
-      <n v="10831"/>
-    </r>
-    <r>
-      <s v="智慧型手機"/>
-      <s v="南區"/>
-      <s v="3月"/>
-      <n v="2120"/>
-    </r>
-    <r>
-      <s v="耳機"/>
-      <s v="東區"/>
-      <s v="4月"/>
-      <n v="9281"/>
-    </r>
-    <r>
-      <s v="筆記型電腦"/>
-      <s v="北區"/>
-      <s v="1月"/>
-      <n v="10298"/>
-    </r>
-    <r>
-      <s v="平板電腦"/>
-      <s v="中區"/>
-      <s v="2月"/>
-      <n v="7926"/>
-    </r>
-    <r>
-      <s v="智慧型手機"/>
-      <s v="南區"/>
-      <s v="3月"/>
-      <n v="1945"/>
-    </r>
-    <r>
-      <s v="耳機"/>
-      <s v="東區"/>
-      <s v="4月"/>
-      <n v="3641"/>
-    </r>
-    <r>
-      <s v="筆記型電腦"/>
-      <s v="北區"/>
-      <s v="1月"/>
-      <n v="7824"/>
-    </r>
-    <r>
-      <s v="平板電腦"/>
-      <s v="中區"/>
-      <s v="2月"/>
-      <n v="2377"/>
-    </r>
-    <r>
-      <s v="智慧型手機"/>
-      <s v="南區"/>
-      <s v="3月"/>
-      <n v="9381"/>
-    </r>
-    <r>
-      <s v="耳機"/>
-      <s v="東區"/>
-      <s v="4月"/>
-      <n v="5163"/>
-    </r>
-    <r>
-      <s v="筆記型電腦"/>
-      <s v="北區"/>
-      <s v="1月"/>
-      <n v="8146"/>
-    </r>
-    <r>
-      <s v="平板電腦"/>
-      <s v="中區"/>
-      <s v="2月"/>
-      <n v="7111"/>
-    </r>
-    <r>
-      <s v="智慧型手機"/>
-      <s v="南區"/>
-      <s v="3月"/>
-      <n v="10037"/>
-    </r>
-    <r>
-      <s v="耳機"/>
-      <s v="東區"/>
-      <s v="4月"/>
-      <n v="6311"/>
-    </r>
-    <r>
-      <s v="筆記型電腦"/>
-      <s v="北區"/>
-      <s v="1月"/>
-      <n v="8978"/>
-    </r>
-    <r>
-      <s v="平板電腦"/>
-      <s v="中區"/>
-      <s v="2月"/>
-      <n v="6467"/>
-    </r>
-    <r>
-      <s v="智慧型手機"/>
-      <s v="南區"/>
-      <s v="3月"/>
-      <n v="6309"/>
-    </r>
-    <r>
-      <s v="耳機"/>
-      <s v="東區"/>
-      <s v="4月"/>
-      <n v="7637"/>
-    </r>
-    <r>
-      <s v="筆記型電腦"/>
-      <s v="北區"/>
-      <s v="1月"/>
-      <n v="8657"/>
-    </r>
-    <r>
-      <s v="平板電腦"/>
-      <s v="中區"/>
-      <s v="2月"/>
-      <n v="8477"/>
-    </r>
-    <r>
-      <s v="智慧型手機"/>
-      <s v="南區"/>
-      <s v="3月"/>
-      <n v="2589"/>
-    </r>
-    <r>
-      <s v="耳機"/>
-      <s v="東區"/>
-      <s v="4月"/>
-      <n v="7192"/>
-    </r>
-    <r>
-      <s v="筆記型電腦"/>
-      <s v="北區"/>
-      <s v="1月"/>
-      <n v="3569"/>
-    </r>
-    <r>
-      <s v="平板電腦"/>
-      <s v="中區"/>
-      <s v="2月"/>
-      <n v="2705"/>
-    </r>
-    <r>
-      <s v="智慧型手機"/>
-      <s v="南區"/>
-      <s v="3月"/>
-      <n v="1954"/>
-    </r>
-    <r>
-      <s v="耳機"/>
-      <s v="東區"/>
-      <s v="4月"/>
-      <n v="10659"/>
-    </r>
-    <r>
-      <s v="筆記型電腦"/>
-      <s v="北區"/>
-      <s v="1月"/>
-      <n v="5237"/>
-    </r>
-    <r>
-      <s v="平板電腦"/>
-      <s v="中區"/>
-      <s v="2月"/>
-      <n v="3113"/>
-    </r>
-    <r>
-      <s v="智慧型手機"/>
-      <s v="南區"/>
-      <s v="3月"/>
-      <n v="9325"/>
-    </r>
-    <r>
-      <s v="耳機"/>
-      <s v="東區"/>
-      <s v="4月"/>
-      <n v="1920"/>
-    </r>
-    <r>
-      <s v="筆記型電腦"/>
-      <s v="北區"/>
-      <s v="1月"/>
-      <n v="3495"/>
-    </r>
-    <r>
-      <s v="平板電腦"/>
-      <s v="中區"/>
-      <s v="2月"/>
-      <n v="2935"/>
-    </r>
-    <r>
-      <s v="智慧型手機"/>
-      <s v="南區"/>
-      <s v="3月"/>
-      <n v="5125"/>
-    </r>
-    <r>
-      <s v="耳機"/>
-      <s v="東區"/>
-      <s v="4月"/>
-      <n v="1495"/>
-    </r>
-    <r>
-      <s v="筆記型電腦"/>
-      <s v="北區"/>
-      <s v="1月"/>
-      <n v="2311"/>
-    </r>
-    <r>
-      <s v="平板電腦"/>
-      <s v="中區"/>
-      <s v="2月"/>
-      <n v="10892"/>
-    </r>
-    <r>
-      <s v="智慧型手機"/>
-      <s v="南區"/>
-      <s v="3月"/>
-      <n v="10720"/>
-    </r>
-    <r>
-      <s v="耳機"/>
-      <s v="東區"/>
-      <s v="4月"/>
-      <n v="1114"/>
-    </r>
-    <r>
-      <s v="筆記型電腦"/>
-      <s v="北區"/>
-      <s v="1月"/>
-      <n v="10209"/>
-    </r>
-    <r>
-      <s v="平板電腦"/>
-      <s v="中區"/>
-      <s v="2月"/>
-      <n v="10589"/>
-    </r>
-    <r>
-      <s v="智慧型手機"/>
-      <s v="南區"/>
-      <s v="3月"/>
-      <n v="9223"/>
-    </r>
-    <r>
-      <s v="耳機"/>
-      <s v="東區"/>
-      <s v="4月"/>
-      <n v="8804"/>
-    </r>
-    <r>
-      <s v="筆記型電腦"/>
-      <s v="北區"/>
-      <s v="1月"/>
-      <n v="6712"/>
-    </r>
-    <r>
-      <s v="平板電腦"/>
-      <s v="中區"/>
-      <s v="2月"/>
-      <n v="1430"/>
-    </r>
-    <r>
-      <s v="智慧型手機"/>
-      <s v="南區"/>
-      <s v="3月"/>
-      <n v="7998"/>
-    </r>
-    <r>
-      <s v="耳機"/>
-      <s v="東區"/>
-      <s v="4月"/>
-      <n v="3945"/>
-    </r>
-    <r>
-      <s v="筆記型電腦"/>
-      <s v="北區"/>
-      <s v="1月"/>
-      <n v="9933"/>
-    </r>
-    <r>
-      <s v="平板電腦"/>
-      <s v="中區"/>
-      <s v="2月"/>
-      <n v="8640"/>
-    </r>
-    <r>
-      <s v="智慧型手機"/>
-      <s v="南區"/>
-      <s v="3月"/>
-      <n v="3636"/>
-    </r>
-    <r>
-      <s v="耳機"/>
-      <s v="東區"/>
-      <s v="4月"/>
-      <n v="6483"/>
-    </r>
-    <r>
-      <s v="筆記型電腦"/>
-      <s v="北區"/>
-      <s v="1月"/>
-      <n v="4061"/>
-    </r>
-    <r>
-      <s v="平板電腦"/>
-      <s v="中區"/>
-      <s v="2月"/>
-      <n v="3900"/>
-    </r>
-    <r>
-      <s v="智慧型手機"/>
-      <s v="南區"/>
-      <s v="3月"/>
-      <n v="8548"/>
-    </r>
-    <r>
-      <s v="耳機"/>
-      <s v="東區"/>
-      <s v="4月"/>
-      <n v="2650"/>
-    </r>
-    <r>
-      <s v="筆記型電腦"/>
-      <s v="北區"/>
-      <s v="1月"/>
-      <n v="3424"/>
-    </r>
-    <r>
-      <s v="平板電腦"/>
-      <s v="中區"/>
-      <s v="2月"/>
-      <n v="6536"/>
-    </r>
-    <r>
-      <s v="智慧型手機"/>
-      <s v="南區"/>
-      <s v="3月"/>
-      <n v="4982"/>
-    </r>
-    <r>
-      <s v="耳機"/>
-      <s v="東區"/>
-      <s v="4月"/>
-      <n v="1246"/>
-    </r>
-    <r>
-      <s v="筆記型電腦"/>
-      <s v="北區"/>
-      <s v="1月"/>
-      <n v="1397"/>
-    </r>
-    <r>
-      <s v="平板電腦"/>
-      <s v="中區"/>
-      <s v="2月"/>
-      <n v="7679"/>
-    </r>
-    <r>
-      <s v="智慧型手機"/>
-      <s v="南區"/>
-      <s v="3月"/>
-      <n v="7588"/>
-    </r>
-    <r>
-      <s v="耳機"/>
-      <s v="東區"/>
-      <s v="4月"/>
-      <n v="1174"/>
-    </r>
-    <r>
-      <s v="筆記型電腦"/>
-      <s v="北區"/>
-      <s v="1月"/>
-      <n v="8867"/>
-    </r>
-    <r>
-      <s v="平板電腦"/>
-      <s v="中區"/>
-      <s v="2月"/>
-      <n v="2979"/>
-    </r>
-    <r>
-      <s v="智慧型手機"/>
-      <s v="南區"/>
-      <s v="3月"/>
-      <n v="3276"/>
-    </r>
-    <r>
-      <s v="耳機"/>
-      <s v="東區"/>
-      <s v="4月"/>
-      <n v="7263"/>
-    </r>
-    <r>
-      <s v="筆記型電腦"/>
-      <s v="北區"/>
-      <s v="1月"/>
-      <n v="1243"/>
-    </r>
-    <r>
-      <s v="平板電腦"/>
-      <s v="中區"/>
-      <s v="2月"/>
-      <n v="7811"/>
-    </r>
-    <r>
-      <s v="智慧型手機"/>
-      <s v="南區"/>
-      <s v="3月"/>
-      <n v="1868"/>
-    </r>
-    <r>
-      <s v="耳機"/>
-      <s v="東區"/>
-      <s v="4月"/>
-      <n v="9051"/>
-    </r>
-    <r>
-      <s v="筆記型電腦"/>
-      <s v="北區"/>
-      <s v="1月"/>
-      <n v="9851"/>
-    </r>
-    <r>
-      <s v="平板電腦"/>
-      <s v="中區"/>
-      <s v="2月"/>
-      <n v="10683"/>
-    </r>
-    <r>
-      <s v="智慧型手機"/>
-      <s v="南區"/>
-      <s v="3月"/>
-      <n v="1779"/>
-    </r>
-    <r>
-      <s v="耳機"/>
-      <s v="東區"/>
-      <s v="4月"/>
-      <n v="3494"/>
-    </r>
-    <r>
-      <s v="筆記型電腦"/>
-      <s v="北區"/>
-      <s v="1月"/>
-      <n v="9850"/>
-    </r>
-    <r>
-      <s v="平板電腦"/>
-      <s v="中區"/>
-      <s v="2月"/>
-      <n v="10709"/>
-    </r>
-    <r>
-      <s v="智慧型手機"/>
-      <s v="南區"/>
-      <s v="3月"/>
-      <n v="4538"/>
-    </r>
-    <r>
-      <s v="耳機"/>
-      <s v="東區"/>
-      <s v="4月"/>
-      <n v="9748"/>
-    </r>
-    <r>
-      <s v="筆記型電腦"/>
-      <s v="北區"/>
-      <s v="1月"/>
-      <n v="6900"/>
-    </r>
-    <r>
-      <s v="平板電腦"/>
-      <s v="中區"/>
-      <s v="2月"/>
-      <n v="5918"/>
-    </r>
-    <r>
-      <s v="智慧型手機"/>
-      <s v="南區"/>
-      <s v="3月"/>
-      <n v="3281"/>
-    </r>
-    <r>
-      <s v="耳機"/>
-      <s v="東區"/>
-      <s v="4月"/>
-      <n v="3275"/>
-    </r>
-    <r>
-      <s v="筆記型電腦"/>
-      <s v="北區"/>
-      <s v="1月"/>
-      <n v="3845"/>
-    </r>
-    <r>
-      <s v="平板電腦"/>
-      <s v="中區"/>
-      <s v="2月"/>
-      <n v="1781"/>
-    </r>
-    <r>
-      <s v="智慧型手機"/>
-      <s v="南區"/>
-      <s v="3月"/>
-      <n v="4264"/>
-    </r>
-    <r>
-      <s v="耳機"/>
-      <s v="東區"/>
-      <s v="4月"/>
-      <n v="3312"/>
-    </r>
-    <r>
-      <s v="筆記型電腦"/>
-      <s v="北區"/>
-      <s v="1月"/>
-      <n v="9838"/>
-    </r>
-    <r>
-      <s v="平板電腦"/>
-      <s v="中區"/>
-      <s v="2月"/>
-      <n v="5907"/>
-    </r>
-    <r>
-      <s v="智慧型手機"/>
-      <s v="南區"/>
-      <s v="3月"/>
-      <n v="3498"/>
-    </r>
-    <r>
-      <s v="耳機"/>
-      <s v="東區"/>
-      <s v="4月"/>
-      <n v="4144"/>
-    </r>
-    <r>
-      <s v="筆記型電腦"/>
-      <s v="北區"/>
-      <s v="1月"/>
-      <n v="5356"/>
-    </r>
-    <r>
-      <s v="平板電腦"/>
-      <s v="中區"/>
-      <s v="2月"/>
-      <n v="10363"/>
-    </r>
-    <r>
-      <s v="智慧型手機"/>
-      <s v="南區"/>
-      <s v="3月"/>
-      <n v="2259"/>
-    </r>
-    <r>
-      <s v="耳機"/>
-      <s v="東區"/>
-      <s v="4月"/>
-      <n v="7668"/>
-    </r>
-  </cacheRecords>
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable372412.xml><?xml version="1.0" encoding="UTF-8" standalone="yes"?>
+<file path=xl/pivotCache/pivotCacheRecords577491.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="500">
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="7229"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="5123"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="4952"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="6606"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="2549"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="6546"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="8955"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="9027"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="2625"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="1039"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="2167"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="6471"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="1661"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="2053"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="5403"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="2914"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="6758"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="1380"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="1306"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="1999"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="2127"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="6578"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="3450"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="5482"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="2087"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="1936"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="2239"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="9341"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="5130"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="10087"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="8888"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="9468"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="7078"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="8861"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="8548"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="1864"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="2990"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="4875"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="8083"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="4059"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="2244"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="7820"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="4581"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="5495"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="4568"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="7829"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="7529"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="10974"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="1888"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="4351"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="9681"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="6083"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="6198"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="9491"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="2380"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="2962"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="1843"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="8393"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="4466"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="10714"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="4437"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="5239"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="8258"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="4567"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="4797"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="1135"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="7615"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="1271"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="2657"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="4850"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="1331"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="3488"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="5101"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="6288"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="9976"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="3817"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="7379"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="8168"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="8418"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="8024"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="3548"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="8248"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="10470"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="8684"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="4184"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="4402"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="3046"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="5814"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="6742"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="2648"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="9470"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="10579"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="10570"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="10285"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="2391"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="8239"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="2542"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="1966"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="6958"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="2050"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="4841"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="10131"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="3911"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="8253"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="7129"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="6640"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="9997"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="9879"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="2464"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="1825"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="7032"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="3138"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="1449"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="2574"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="9203"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="9514"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="8815"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="10599"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="8368"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="4152"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="1449"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="2938"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="2488"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="1498"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="2336"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="6405"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="4032"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="2703"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="7421"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="7368"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="1638"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="5719"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="5859"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="10989"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="4398"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="10922"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="3065"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="6385"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="8727"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="1877"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="4522"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="1765"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="3877"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="1352"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="3368"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="8343"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="3438"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="8737"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="9416"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="4935"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="2105"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="4104"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="5068"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="5755"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="9295"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="2158"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="6196"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="10811"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="8289"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="4758"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="4923"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="1002"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="6705"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="1914"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="5929"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="7098"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="1904"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="9187"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="6667"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="6987"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="8638"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="10290"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="5442"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="2297"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="3150"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="2509"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="5439"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="5684"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="4224"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="3630"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="8843"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="1982"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="1724"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="10150"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="1204"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="4046"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="2751"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="8826"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="10832"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="8940"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="9885"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="1308"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="4246"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="5936"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="2148"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="9015"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="9182"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="10622"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="6385"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="7102"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="4324"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="9789"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="8864"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="10741"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="8231"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="4556"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="4453"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="1166"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="8174"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="3571"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="2484"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="9735"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="3535"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="3229"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="1773"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="4217"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="3160"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="2746"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="4590"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="6928"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="1112"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="7988"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="8522"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="10432"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="10285"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="1836"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="9374"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="10490"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="9624"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="1769"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="9340"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="9291"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="10620"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="1987"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="2749"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="10617"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="2788"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="3409"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="6428"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="7127"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="3308"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="10980"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="1552"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="7501"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="1321"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="9537"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="10373"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="1503"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="10112"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="1631"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="9501"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="2272"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="8906"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="10664"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="3435"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="2120"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="4081"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="1830"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="10505"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="2313"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="7564"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="5334"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="4989"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="3221"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="1044"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="5214"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="10866"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="10605"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="4159"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="6994"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="1316"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="10236"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="4979"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="4680"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="3252"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="6391"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="4883"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="8438"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="9822"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="10768"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="9186"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="5562"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="5452"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="1555"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="8462"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="10167"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="4597"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="5033"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="1840"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="2461"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="7646"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="2432"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="10856"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="3880"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="1782"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="9864"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="6294"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="4690"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="6841"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="1941"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="3689"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="1843"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="3541"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="5219"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="3509"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="2464"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="9419"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="2048"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="5370"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="2742"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="4879"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="1404"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="6543"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="9113"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="2183"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="9773"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="10816"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="4051"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="3665"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="10030"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="1863"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="2626"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="4566"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="6605"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="10754"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="7703"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="6198"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="2938"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="5666"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="9071"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="1283"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="9341"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="7000"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="3987"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="8863"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="9115"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="8724"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="9639"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="2074"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="10329"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="1261"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="10119"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="8002"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="7057"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="1207"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="1119"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="5453"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="10772"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="2253"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="5649"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="7696"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="7994"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="9359"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="2003"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="9033"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="2090"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="2373"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="2306"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="8453"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="10965"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="3409"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="2236"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="9529"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="3283"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="7207"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="5992"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="1499"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="5637"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="5212"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="3915"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="3464"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="7632"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="6253"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="8981"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="8895"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="5280"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="8230"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="8442"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="2247"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="1300"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="2410"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="5423"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="8776"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="8791"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="2932"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="2849"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="3267"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="8318"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="10998"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="10370"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="3974"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="2915"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="7028"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="10296"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="1256"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="8613"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="6929"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="4141"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="6725"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="5206"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="7846"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="9570"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="2618"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="10129"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="5397"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="2411"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="8205"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="3435"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="9274"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="8903"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="8207"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="9087"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="3046"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="7893"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="8978"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="8704"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="7242"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="8049"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="4345"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="8624"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="7801"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="9749"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="8914"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="4251"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="6728"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="3480"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="6347"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="2552"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="8449"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="8664"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="3053"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="9223"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="10221"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="9248"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="10646"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="8453"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="10267"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="10326"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="2944"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="9064"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="8064"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="8347"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="2484"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="9098"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="6377"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="10955"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="5856"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="5797"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="3379"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="7158"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="2252"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="3629"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="8741"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="1532"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="8174"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="3016"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="3837"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="9371"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="1168"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="8469"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="10752"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="4167"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="8572"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="4232"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="10694"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="2417"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="7127"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="6929"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="1139"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="7175"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="4867"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="3548"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="8884"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="5788"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="2654"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="10248"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="10794"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="10541"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="6994"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="3274"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="8196"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="1428"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="4501"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="8555"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="1065"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="3354"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="1703"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="5348"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="7977"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="2492"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="10248"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="5411"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="6531"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="7375"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="9729"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="7091"/>
+  </r>
+  <r>
+    <s v="筆記型電腦"/>
+    <s v="北區"/>
+    <s v="1月"/>
+    <n v="10145"/>
+  </r>
+  <r>
+    <s v="平板電腦"/>
+    <s v="中區"/>
+    <s v="2月"/>
+    <n v="9828"/>
+  </r>
+  <r>
+    <s v="智慧型手機"/>
+    <s v="南區"/>
+    <s v="3月"/>
+    <n v="4178"/>
+  </r>
+  <r>
+    <s v="耳機"/>
+    <s v="東區"/>
+    <s v="4月"/>
+    <n v="4114"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable336454.xml><?xml version="1.0" encoding="UTF-8" standalone="yes"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" 
                      xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" 
                      mc:Ignorable="xr" 
                      xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" 
                      name="銷售分析表" 
-                     cacheId="563281" 
+                     cacheId="577491" 
                      dataCaption="Values" 
                      applyNumberFormatsInPivot="0" 
                      applyBorderFormatsInPivot="0" 
@@ -968,7 +3753,7 @@
         <item x="4"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" showAll="0">
+    <pivotField axis="axisCol" showAll="0">
       <items count="5">
         <item x="0" t="default"/>
         <item x="1"/>
@@ -977,8 +3762,8 @@
         <item x="4"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="100">
+    <pivotField axis="axisValues" showAll="0" dataField="1" subtotal="sum">
+      <items count="482">
         <item x="0" t="default"/>
         <item x="1"/>
         <item x="2"/>
@@ -1079,9 +3864,391 @@
         <item x="97"/>
         <item x="98"/>
         <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
+        <item x="252"/>
+        <item x="253"/>
+        <item x="254"/>
+        <item x="255"/>
+        <item x="256"/>
+        <item x="257"/>
+        <item x="258"/>
+        <item x="259"/>
+        <item x="260"/>
+        <item x="261"/>
+        <item x="262"/>
+        <item x="263"/>
+        <item x="264"/>
+        <item x="265"/>
+        <item x="266"/>
+        <item x="267"/>
+        <item x="268"/>
+        <item x="269"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="272"/>
+        <item x="273"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="285"/>
+        <item x="286"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="289"/>
+        <item x="290"/>
+        <item x="291"/>
+        <item x="292"/>
+        <item x="293"/>
+        <item x="294"/>
+        <item x="295"/>
+        <item x="296"/>
+        <item x="297"/>
+        <item x="298"/>
+        <item x="299"/>
+        <item x="300"/>
+        <item x="301"/>
+        <item x="302"/>
+        <item x="303"/>
+        <item x="304"/>
+        <item x="305"/>
+        <item x="306"/>
+        <item x="307"/>
+        <item x="308"/>
+        <item x="309"/>
+        <item x="310"/>
+        <item x="311"/>
+        <item x="312"/>
+        <item x="313"/>
+        <item x="314"/>
+        <item x="315"/>
+        <item x="316"/>
+        <item x="317"/>
+        <item x="318"/>
+        <item x="319"/>
+        <item x="320"/>
+        <item x="321"/>
+        <item x="322"/>
+        <item x="323"/>
+        <item x="324"/>
+        <item x="325"/>
+        <item x="326"/>
+        <item x="327"/>
+        <item x="328"/>
+        <item x="329"/>
+        <item x="330"/>
+        <item x="331"/>
+        <item x="332"/>
+        <item x="333"/>
+        <item x="334"/>
+        <item x="335"/>
+        <item x="336"/>
+        <item x="337"/>
+        <item x="338"/>
+        <item x="339"/>
+        <item x="340"/>
+        <item x="341"/>
+        <item x="342"/>
+        <item x="343"/>
+        <item x="344"/>
+        <item x="345"/>
+        <item x="346"/>
+        <item x="347"/>
+        <item x="348"/>
+        <item x="349"/>
+        <item x="350"/>
+        <item x="351"/>
+        <item x="352"/>
+        <item x="353"/>
+        <item x="354"/>
+        <item x="355"/>
+        <item x="356"/>
+        <item x="357"/>
+        <item x="358"/>
+        <item x="359"/>
+        <item x="360"/>
+        <item x="361"/>
+        <item x="362"/>
+        <item x="363"/>
+        <item x="364"/>
+        <item x="365"/>
+        <item x="366"/>
+        <item x="367"/>
+        <item x="368"/>
+        <item x="369"/>
+        <item x="370"/>
+        <item x="371"/>
+        <item x="372"/>
+        <item x="373"/>
+        <item x="374"/>
+        <item x="375"/>
+        <item x="376"/>
+        <item x="377"/>
+        <item x="378"/>
+        <item x="379"/>
+        <item x="380"/>
+        <item x="381"/>
+        <item x="382"/>
+        <item x="383"/>
+        <item x="384"/>
+        <item x="385"/>
+        <item x="386"/>
+        <item x="387"/>
+        <item x="388"/>
+        <item x="389"/>
+        <item x="390"/>
+        <item x="391"/>
+        <item x="392"/>
+        <item x="393"/>
+        <item x="394"/>
+        <item x="395"/>
+        <item x="396"/>
+        <item x="397"/>
+        <item x="398"/>
+        <item x="399"/>
+        <item x="400"/>
+        <item x="401"/>
+        <item x="402"/>
+        <item x="403"/>
+        <item x="404"/>
+        <item x="405"/>
+        <item x="406"/>
+        <item x="407"/>
+        <item x="408"/>
+        <item x="409"/>
+        <item x="410"/>
+        <item x="411"/>
+        <item x="412"/>
+        <item x="413"/>
+        <item x="414"/>
+        <item x="415"/>
+        <item x="416"/>
+        <item x="417"/>
+        <item x="418"/>
+        <item x="419"/>
+        <item x="420"/>
+        <item x="421"/>
+        <item x="422"/>
+        <item x="423"/>
+        <item x="424"/>
+        <item x="425"/>
+        <item x="426"/>
+        <item x="427"/>
+        <item x="428"/>
+        <item x="429"/>
+        <item x="430"/>
+        <item x="431"/>
+        <item x="432"/>
+        <item x="433"/>
+        <item x="434"/>
+        <item x="435"/>
+        <item x="436"/>
+        <item x="437"/>
+        <item x="438"/>
+        <item x="439"/>
+        <item x="440"/>
+        <item x="441"/>
+        <item x="442"/>
+        <item x="443"/>
+        <item x="444"/>
+        <item x="445"/>
+        <item x="446"/>
+        <item x="447"/>
+        <item x="448"/>
+        <item x="449"/>
+        <item x="450"/>
+        <item x="451"/>
+        <item x="452"/>
+        <item x="453"/>
+        <item x="454"/>
+        <item x="455"/>
+        <item x="456"/>
+        <item x="457"/>
+        <item x="458"/>
+        <item x="459"/>
+        <item x="460"/>
+        <item x="461"/>
+        <item x="462"/>
+        <item x="463"/>
+        <item x="464"/>
+        <item x="465"/>
+        <item x="466"/>
+        <item x="467"/>
+        <item x="468"/>
+        <item x="469"/>
+        <item x="470"/>
+        <item x="471"/>
+        <item x="472"/>
+        <item x="473"/>
+        <item x="474"/>
+        <item x="475"/>
+        <item x="476"/>
+        <item x="477"/>
+        <item x="478"/>
+        <item x="479"/>
+        <item x="480"/>
+        <item x="481"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" showAll="0">
+    <pivotField axis="axisPage" showAll="0">
       <items count="5">
         <item x="0" t="default"/>
         <item x="1"/>
@@ -1135,7 +4302,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>10975</v>
+        <v>7229</v>
       </c>
     </row>
     <row r="3">
@@ -1149,7 +4316,7 @@
         <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>7971</v>
+        <v>5123</v>
       </c>
     </row>
     <row r="4">
@@ -1163,7 +4330,7 @@
         <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>10652</v>
+        <v>4952</v>
       </c>
     </row>
     <row r="5">
@@ -1177,7 +4344,7 @@
         <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>6350</v>
+        <v>6606</v>
       </c>
     </row>
     <row r="6">
@@ -1191,7 +4358,7 @@
         <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>4062</v>
+        <v>2549</v>
       </c>
     </row>
     <row r="7">
@@ -1205,7 +4372,7 @@
         <v>9</v>
       </c>
       <c r="D7" t="n">
-        <v>7907</v>
+        <v>6546</v>
       </c>
     </row>
     <row r="8">
@@ -1219,7 +4386,7 @@
         <v>12</v>
       </c>
       <c r="D8" t="n">
-        <v>3480</v>
+        <v>8955</v>
       </c>
     </row>
     <row r="9">
@@ -1233,7 +4400,7 @@
         <v>15</v>
       </c>
       <c r="D9" t="n">
-        <v>8829</v>
+        <v>9027</v>
       </c>
     </row>
     <row r="10">
@@ -1247,7 +4414,7 @@
         <v>6</v>
       </c>
       <c r="D10" t="n">
-        <v>2027</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="11">
@@ -1261,7 +4428,7 @@
         <v>9</v>
       </c>
       <c r="D11" t="n">
-        <v>7355</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="12">
@@ -1275,7 +4442,7 @@
         <v>12</v>
       </c>
       <c r="D12" t="n">
-        <v>1151</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="13">
@@ -1289,7 +4456,7 @@
         <v>15</v>
       </c>
       <c r="D13" t="n">
-        <v>4801</v>
+        <v>6471</v>
       </c>
     </row>
     <row r="14">
@@ -1303,7 +4470,7 @@
         <v>6</v>
       </c>
       <c r="D14" t="n">
-        <v>6844</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="15">
@@ -1317,7 +4484,7 @@
         <v>9</v>
       </c>
       <c r="D15" t="n">
-        <v>6815</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="16">
@@ -1331,7 +4498,7 @@
         <v>12</v>
       </c>
       <c r="D16" t="n">
-        <v>2349</v>
+        <v>5403</v>
       </c>
     </row>
     <row r="17">
@@ -1345,7 +4512,7 @@
         <v>15</v>
       </c>
       <c r="D17" t="n">
-        <v>4842</v>
+        <v>2914</v>
       </c>
     </row>
     <row r="18">
@@ -1359,7 +4526,7 @@
         <v>6</v>
       </c>
       <c r="D18" t="n">
-        <v>9672</v>
+        <v>6758</v>
       </c>
     </row>
     <row r="19">
@@ -1373,7 +4540,7 @@
         <v>9</v>
       </c>
       <c r="D19" t="n">
-        <v>5445</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="20">
@@ -1387,7 +4554,7 @@
         <v>12</v>
       </c>
       <c r="D20" t="n">
-        <v>1618</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="21">
@@ -1401,7 +4568,7 @@
         <v>15</v>
       </c>
       <c r="D21" t="n">
-        <v>1079</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="22">
@@ -1415,7 +4582,7 @@
         <v>6</v>
       </c>
       <c r="D22" t="n">
-        <v>5493</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="23">
@@ -1429,7 +4596,7 @@
         <v>9</v>
       </c>
       <c r="D23" t="n">
-        <v>8588</v>
+        <v>6578</v>
       </c>
     </row>
     <row r="24">
@@ -1443,7 +4610,7 @@
         <v>12</v>
       </c>
       <c r="D24" t="n">
-        <v>10407</v>
+        <v>3450</v>
       </c>
     </row>
     <row r="25">
@@ -1457,7 +4624,7 @@
         <v>15</v>
       </c>
       <c r="D25" t="n">
-        <v>6549</v>
+        <v>5482</v>
       </c>
     </row>
     <row r="26">
@@ -1471,7 +4638,7 @@
         <v>6</v>
       </c>
       <c r="D26" t="n">
-        <v>4095</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="27">
@@ -1485,7 +4652,7 @@
         <v>9</v>
       </c>
       <c r="D27" t="n">
-        <v>8177</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="28">
@@ -1499,7 +4666,7 @@
         <v>12</v>
       </c>
       <c r="D28" t="n">
-        <v>2415</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="29">
@@ -1513,7 +4680,7 @@
         <v>15</v>
       </c>
       <c r="D29" t="n">
-        <v>3337</v>
+        <v>9341</v>
       </c>
     </row>
     <row r="30">
@@ -1527,7 +4694,7 @@
         <v>6</v>
       </c>
       <c r="D30" t="n">
-        <v>8559</v>
+        <v>5130</v>
       </c>
     </row>
     <row r="31">
@@ -1541,7 +4708,7 @@
         <v>9</v>
       </c>
       <c r="D31" t="n">
-        <v>6295</v>
+        <v>10087</v>
       </c>
     </row>
     <row r="32">
@@ -1555,7 +4722,7 @@
         <v>12</v>
       </c>
       <c r="D32" t="n">
-        <v>2548</v>
+        <v>8888</v>
       </c>
     </row>
     <row r="33">
@@ -1569,7 +4736,7 @@
         <v>15</v>
       </c>
       <c r="D33" t="n">
-        <v>10104</v>
+        <v>9468</v>
       </c>
     </row>
     <row r="34">
@@ -1583,7 +4750,7 @@
         <v>6</v>
       </c>
       <c r="D34" t="n">
-        <v>5358</v>
+        <v>7078</v>
       </c>
     </row>
     <row r="35">
@@ -1597,7 +4764,7 @@
         <v>9</v>
       </c>
       <c r="D35" t="n">
-        <v>3710</v>
+        <v>8861</v>
       </c>
     </row>
     <row r="36">
@@ -1611,7 +4778,7 @@
         <v>12</v>
       </c>
       <c r="D36" t="n">
-        <v>1944</v>
+        <v>8548</v>
       </c>
     </row>
     <row r="37">
@@ -1625,7 +4792,7 @@
         <v>15</v>
       </c>
       <c r="D37" t="n">
-        <v>1784</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="38">
@@ -1639,7 +4806,7 @@
         <v>6</v>
       </c>
       <c r="D38" t="n">
-        <v>3659</v>
+        <v>2990</v>
       </c>
     </row>
     <row r="39">
@@ -1653,7 +4820,7 @@
         <v>9</v>
       </c>
       <c r="D39" t="n">
-        <v>3434</v>
+        <v>4875</v>
       </c>
     </row>
     <row r="40">
@@ -1667,7 +4834,7 @@
         <v>12</v>
       </c>
       <c r="D40" t="n">
-        <v>6859</v>
+        <v>8083</v>
       </c>
     </row>
     <row r="41">
@@ -1681,7 +4848,7 @@
         <v>15</v>
       </c>
       <c r="D41" t="n">
-        <v>2726</v>
+        <v>4059</v>
       </c>
     </row>
     <row r="42">
@@ -1695,7 +4862,7 @@
         <v>6</v>
       </c>
       <c r="D42" t="n">
-        <v>8832</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="43">
@@ -1709,7 +4876,7 @@
         <v>9</v>
       </c>
       <c r="D43" t="n">
-        <v>3321</v>
+        <v>7820</v>
       </c>
     </row>
     <row r="44">
@@ -1723,7 +4890,7 @@
         <v>12</v>
       </c>
       <c r="D44" t="n">
-        <v>8786</v>
+        <v>4581</v>
       </c>
     </row>
     <row r="45">
@@ -1737,7 +4904,7 @@
         <v>15</v>
       </c>
       <c r="D45" t="n">
-        <v>1427</v>
+        <v>5495</v>
       </c>
     </row>
     <row r="46">
@@ -1751,7 +4918,7 @@
         <v>6</v>
       </c>
       <c r="D46" t="n">
-        <v>1434</v>
+        <v>4568</v>
       </c>
     </row>
     <row r="47">
@@ -1765,7 +4932,7 @@
         <v>9</v>
       </c>
       <c r="D47" t="n">
-        <v>6752</v>
+        <v>7829</v>
       </c>
     </row>
     <row r="48">
@@ -1779,7 +4946,7 @@
         <v>12</v>
       </c>
       <c r="D48" t="n">
-        <v>8640</v>
+        <v>7529</v>
       </c>
     </row>
     <row r="49">
@@ -1793,7 +4960,7 @@
         <v>15</v>
       </c>
       <c r="D49" t="n">
-        <v>8214</v>
+        <v>10974</v>
       </c>
     </row>
     <row r="50">
@@ -1807,7 +4974,7 @@
         <v>6</v>
       </c>
       <c r="D50" t="n">
-        <v>9644</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="51">
@@ -1821,7 +4988,7 @@
         <v>9</v>
       </c>
       <c r="D51" t="n">
-        <v>10963</v>
+        <v>4351</v>
       </c>
     </row>
     <row r="52">
@@ -1835,7 +5002,7 @@
         <v>12</v>
       </c>
       <c r="D52" t="n">
-        <v>8037</v>
+        <v>9681</v>
       </c>
     </row>
     <row r="53">
@@ -1849,7 +5016,7 @@
         <v>15</v>
       </c>
       <c r="D53" t="n">
-        <v>2597</v>
+        <v>6083</v>
       </c>
     </row>
     <row r="54">
@@ -1863,7 +5030,7 @@
         <v>6</v>
       </c>
       <c r="D54" t="n">
-        <v>5535</v>
+        <v>6198</v>
       </c>
     </row>
     <row r="55">
@@ -1877,7 +5044,7 @@
         <v>9</v>
       </c>
       <c r="D55" t="n">
-        <v>10879</v>
+        <v>9491</v>
       </c>
     </row>
     <row r="56">
@@ -1891,7 +5058,7 @@
         <v>12</v>
       </c>
       <c r="D56" t="n">
-        <v>3791</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="57">
@@ -1905,7 +5072,7 @@
         <v>15</v>
       </c>
       <c r="D57" t="n">
-        <v>4034</v>
+        <v>2962</v>
       </c>
     </row>
     <row r="58">
@@ -1919,7 +5086,7 @@
         <v>6</v>
       </c>
       <c r="D58" t="n">
-        <v>3294</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="59">
@@ -1933,7 +5100,7 @@
         <v>9</v>
       </c>
       <c r="D59" t="n">
-        <v>1552</v>
+        <v>8393</v>
       </c>
     </row>
     <row r="60">
@@ -1947,7 +5114,7 @@
         <v>12</v>
       </c>
       <c r="D60" t="n">
-        <v>4561</v>
+        <v>4466</v>
       </c>
     </row>
     <row r="61">
@@ -1961,7 +5128,7 @@
         <v>15</v>
       </c>
       <c r="D61" t="n">
-        <v>1157</v>
+        <v>10714</v>
       </c>
     </row>
     <row r="62">
@@ -1975,7 +5142,7 @@
         <v>6</v>
       </c>
       <c r="D62" t="n">
-        <v>3933</v>
+        <v>4437</v>
       </c>
     </row>
     <row r="63">
@@ -1989,7 +5156,7 @@
         <v>9</v>
       </c>
       <c r="D63" t="n">
-        <v>3822</v>
+        <v>5239</v>
       </c>
     </row>
     <row r="64">
@@ -2003,7 +5170,7 @@
         <v>12</v>
       </c>
       <c r="D64" t="n">
-        <v>4655</v>
+        <v>8258</v>
       </c>
     </row>
     <row r="65">
@@ -2017,7 +5184,7 @@
         <v>15</v>
       </c>
       <c r="D65" t="n">
-        <v>8173</v>
+        <v>4567</v>
       </c>
     </row>
     <row r="66">
@@ -2031,7 +5198,7 @@
         <v>6</v>
       </c>
       <c r="D66" t="n">
-        <v>2484</v>
+        <v>4797</v>
       </c>
     </row>
     <row r="67">
@@ -2045,7 +5212,7 @@
         <v>9</v>
       </c>
       <c r="D67" t="n">
-        <v>1329</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="68">
@@ -2059,7 +5226,7 @@
         <v>12</v>
       </c>
       <c r="D68" t="n">
-        <v>2541</v>
+        <v>7615</v>
       </c>
     </row>
     <row r="69">
@@ -2073,7 +5240,7 @@
         <v>15</v>
       </c>
       <c r="D69" t="n">
-        <v>5853</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="70">
@@ -2087,7 +5254,7 @@
         <v>6</v>
       </c>
       <c r="D70" t="n">
-        <v>5606</v>
+        <v>2657</v>
       </c>
     </row>
     <row r="71">
@@ -2101,7 +5268,7 @@
         <v>9</v>
       </c>
       <c r="D71" t="n">
-        <v>3699</v>
+        <v>4850</v>
       </c>
     </row>
     <row r="72">
@@ -2115,7 +5282,7 @@
         <v>12</v>
       </c>
       <c r="D72" t="n">
-        <v>5349</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="73">
@@ -2129,7 +5296,7 @@
         <v>15</v>
       </c>
       <c r="D73" t="n">
-        <v>2888</v>
+        <v>3488</v>
       </c>
     </row>
     <row r="74">
@@ -2143,7 +5310,7 @@
         <v>6</v>
       </c>
       <c r="D74" t="n">
-        <v>2442</v>
+        <v>5101</v>
       </c>
     </row>
     <row r="75">
@@ -2157,7 +5324,7 @@
         <v>9</v>
       </c>
       <c r="D75" t="n">
-        <v>1056</v>
+        <v>6288</v>
       </c>
     </row>
     <row r="76">
@@ -2171,7 +5338,7 @@
         <v>12</v>
       </c>
       <c r="D76" t="n">
-        <v>6900</v>
+        <v>9976</v>
       </c>
     </row>
     <row r="77">
@@ -2185,7 +5352,7 @@
         <v>15</v>
       </c>
       <c r="D77" t="n">
-        <v>6235</v>
+        <v>3817</v>
       </c>
     </row>
     <row r="78">
@@ -2199,7 +5366,7 @@
         <v>6</v>
       </c>
       <c r="D78" t="n">
-        <v>8393</v>
+        <v>7379</v>
       </c>
     </row>
     <row r="79">
@@ -2213,7 +5380,7 @@
         <v>9</v>
       </c>
       <c r="D79" t="n">
-        <v>10798</v>
+        <v>8168</v>
       </c>
     </row>
     <row r="80">
@@ -2227,7 +5394,7 @@
         <v>12</v>
       </c>
       <c r="D80" t="n">
-        <v>10571</v>
+        <v>8418</v>
       </c>
     </row>
     <row r="81">
@@ -2241,7 +5408,7 @@
         <v>15</v>
       </c>
       <c r="D81" t="n">
-        <v>6168</v>
+        <v>8024</v>
       </c>
     </row>
     <row r="82">
@@ -2255,7 +5422,7 @@
         <v>6</v>
       </c>
       <c r="D82" t="n">
-        <v>1685</v>
+        <v>3548</v>
       </c>
     </row>
     <row r="83">
@@ -2269,7 +5436,7 @@
         <v>9</v>
       </c>
       <c r="D83" t="n">
-        <v>4756</v>
+        <v>8248</v>
       </c>
     </row>
     <row r="84">
@@ -2283,7 +5450,7 @@
         <v>12</v>
       </c>
       <c r="D84" t="n">
-        <v>6356</v>
+        <v>10470</v>
       </c>
     </row>
     <row r="85">
@@ -2297,7 +5464,7 @@
         <v>15</v>
       </c>
       <c r="D85" t="n">
-        <v>9981</v>
+        <v>8684</v>
       </c>
     </row>
     <row r="86">
@@ -2311,7 +5478,7 @@
         <v>6</v>
       </c>
       <c r="D86" t="n">
-        <v>5423</v>
+        <v>4184</v>
       </c>
     </row>
     <row r="87">
@@ -2325,7 +5492,7 @@
         <v>9</v>
       </c>
       <c r="D87" t="n">
-        <v>4835</v>
+        <v>4402</v>
       </c>
     </row>
     <row r="88">
@@ -2339,7 +5506,7 @@
         <v>12</v>
       </c>
       <c r="D88" t="n">
-        <v>5485</v>
+        <v>3046</v>
       </c>
     </row>
     <row r="89">
@@ -2353,7 +5520,7 @@
         <v>15</v>
       </c>
       <c r="D89" t="n">
-        <v>2424</v>
+        <v>5814</v>
       </c>
     </row>
     <row r="90">
@@ -2367,7 +5534,7 @@
         <v>6</v>
       </c>
       <c r="D90" t="n">
-        <v>8015</v>
+        <v>6742</v>
       </c>
     </row>
     <row r="91">
@@ -2381,7 +5548,7 @@
         <v>9</v>
       </c>
       <c r="D91" t="n">
-        <v>10357</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="92">
@@ -2395,7 +5562,7 @@
         <v>12</v>
       </c>
       <c r="D92" t="n">
-        <v>2782</v>
+        <v>9470</v>
       </c>
     </row>
     <row r="93">
@@ -2409,7 +5576,7 @@
         <v>15</v>
       </c>
       <c r="D93" t="n">
-        <v>10920</v>
+        <v>10579</v>
       </c>
     </row>
     <row r="94">
@@ -2423,7 +5590,7 @@
         <v>6</v>
       </c>
       <c r="D94" t="n">
-        <v>1064</v>
+        <v>10570</v>
       </c>
     </row>
     <row r="95">
@@ -2437,7 +5604,7 @@
         <v>9</v>
       </c>
       <c r="D95" t="n">
-        <v>9228</v>
+        <v>10285</v>
       </c>
     </row>
     <row r="96">
@@ -2451,7 +5618,7 @@
         <v>12</v>
       </c>
       <c r="D96" t="n">
-        <v>9581</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="97">
@@ -2465,7 +5632,7 @@
         <v>15</v>
       </c>
       <c r="D97" t="n">
-        <v>1287</v>
+        <v>8239</v>
       </c>
     </row>
     <row r="98">
@@ -2479,7 +5646,7 @@
         <v>6</v>
       </c>
       <c r="D98" t="n">
-        <v>2983</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="99">
@@ -2493,7 +5660,7 @@
         <v>9</v>
       </c>
       <c r="D99" t="n">
-        <v>5754</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="100">
@@ -2507,7 +5674,7 @@
         <v>12</v>
       </c>
       <c r="D100" t="n">
-        <v>4902</v>
+        <v>6958</v>
       </c>
     </row>
     <row r="101">
@@ -2521,7 +5688,7 @@
         <v>15</v>
       </c>
       <c r="D101" t="n">
-        <v>8800</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="102">
@@ -2535,7 +5702,7 @@
         <v>6</v>
       </c>
       <c r="D102" t="n">
-        <v>10019</v>
+        <v>4841</v>
       </c>
     </row>
     <row r="103">
@@ -2549,7 +5716,7 @@
         <v>9</v>
       </c>
       <c r="D103" t="n">
-        <v>2504</v>
+        <v>10131</v>
       </c>
     </row>
     <row r="104">
@@ -2563,7 +5730,7 @@
         <v>12</v>
       </c>
       <c r="D104" t="n">
-        <v>2222</v>
+        <v>3911</v>
       </c>
     </row>
     <row r="105">
@@ -2577,7 +5744,7 @@
         <v>15</v>
       </c>
       <c r="D105" t="n">
-        <v>5940</v>
+        <v>8253</v>
       </c>
     </row>
     <row r="106">
@@ -2591,7 +5758,7 @@
         <v>6</v>
       </c>
       <c r="D106" t="n">
-        <v>10077</v>
+        <v>7129</v>
       </c>
     </row>
     <row r="107">
@@ -2605,7 +5772,7 @@
         <v>9</v>
       </c>
       <c r="D107" t="n">
-        <v>9553</v>
+        <v>6640</v>
       </c>
     </row>
     <row r="108">
@@ -2619,7 +5786,7 @@
         <v>12</v>
       </c>
       <c r="D108" t="n">
-        <v>4051</v>
+        <v>9997</v>
       </c>
     </row>
     <row r="109">
@@ -2633,7 +5800,7 @@
         <v>15</v>
       </c>
       <c r="D109" t="n">
-        <v>3517</v>
+        <v>9879</v>
       </c>
     </row>
     <row r="110">
@@ -2647,7 +5814,7 @@
         <v>6</v>
       </c>
       <c r="D110" t="n">
-        <v>5918</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="111">
@@ -2661,7 +5828,7 @@
         <v>9</v>
       </c>
       <c r="D111" t="n">
-        <v>8436</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="112">
@@ -2675,7 +5842,7 @@
         <v>12</v>
       </c>
       <c r="D112" t="n">
-        <v>3975</v>
+        <v>7032</v>
       </c>
     </row>
     <row r="113">
@@ -2689,7 +5856,7 @@
         <v>15</v>
       </c>
       <c r="D113" t="n">
-        <v>3163</v>
+        <v>3138</v>
       </c>
     </row>
     <row r="114">
@@ -2703,7 +5870,7 @@
         <v>6</v>
       </c>
       <c r="D114" t="n">
-        <v>5357</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="115">
@@ -2717,7 +5884,7 @@
         <v>9</v>
       </c>
       <c r="D115" t="n">
-        <v>10414</v>
+        <v>2574</v>
       </c>
     </row>
     <row r="116">
@@ -2731,7 +5898,7 @@
         <v>12</v>
       </c>
       <c r="D116" t="n">
-        <v>4922</v>
+        <v>9203</v>
       </c>
     </row>
     <row r="117">
@@ -2745,7 +5912,7 @@
         <v>15</v>
       </c>
       <c r="D117" t="n">
-        <v>9072</v>
+        <v>9514</v>
       </c>
     </row>
     <row r="118">
@@ -2759,7 +5926,7 @@
         <v>6</v>
       </c>
       <c r="D118" t="n">
-        <v>2741</v>
+        <v>8815</v>
       </c>
     </row>
     <row r="119">
@@ -2773,7 +5940,7 @@
         <v>9</v>
       </c>
       <c r="D119" t="n">
-        <v>3585</v>
+        <v>10599</v>
       </c>
     </row>
     <row r="120">
@@ -2787,7 +5954,7 @@
         <v>12</v>
       </c>
       <c r="D120" t="n">
-        <v>1105</v>
+        <v>8368</v>
       </c>
     </row>
     <row r="121">
@@ -2801,7 +5968,7 @@
         <v>15</v>
       </c>
       <c r="D121" t="n">
-        <v>9930</v>
+        <v>4152</v>
       </c>
     </row>
     <row r="122">
@@ -2815,7 +5982,7 @@
         <v>6</v>
       </c>
       <c r="D122" t="n">
-        <v>8537</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="123">
@@ -2829,7 +5996,7 @@
         <v>9</v>
       </c>
       <c r="D123" t="n">
-        <v>5503</v>
+        <v>2938</v>
       </c>
     </row>
     <row r="124">
@@ -2843,7 +6010,7 @@
         <v>12</v>
       </c>
       <c r="D124" t="n">
-        <v>4817</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="125">
@@ -2857,7 +6024,7 @@
         <v>15</v>
       </c>
       <c r="D125" t="n">
-        <v>1259</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="126">
@@ -2871,7 +6038,7 @@
         <v>6</v>
       </c>
       <c r="D126" t="n">
-        <v>2653</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="127">
@@ -2885,7 +6052,7 @@
         <v>9</v>
       </c>
       <c r="D127" t="n">
-        <v>7779</v>
+        <v>6405</v>
       </c>
     </row>
     <row r="128">
@@ -2899,7 +6066,7 @@
         <v>12</v>
       </c>
       <c r="D128" t="n">
-        <v>5130</v>
+        <v>4032</v>
       </c>
     </row>
     <row r="129">
@@ -2913,7 +6080,7 @@
         <v>15</v>
       </c>
       <c r="D129" t="n">
-        <v>8376</v>
+        <v>2703</v>
       </c>
     </row>
     <row r="130">
@@ -2927,7 +6094,7 @@
         <v>6</v>
       </c>
       <c r="D130" t="n">
-        <v>1580</v>
+        <v>7421</v>
       </c>
     </row>
     <row r="131">
@@ -2941,7 +6108,7 @@
         <v>9</v>
       </c>
       <c r="D131" t="n">
-        <v>2462</v>
+        <v>7368</v>
       </c>
     </row>
     <row r="132">
@@ -2955,7 +6122,7 @@
         <v>12</v>
       </c>
       <c r="D132" t="n">
-        <v>5262</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="133">
@@ -2969,7 +6136,7 @@
         <v>15</v>
       </c>
       <c r="D133" t="n">
-        <v>7757</v>
+        <v>5719</v>
       </c>
     </row>
     <row r="134">
@@ -2983,7 +6150,7 @@
         <v>6</v>
       </c>
       <c r="D134" t="n">
-        <v>5008</v>
+        <v>5859</v>
       </c>
     </row>
     <row r="135">
@@ -2997,7 +6164,7 @@
         <v>9</v>
       </c>
       <c r="D135" t="n">
-        <v>3164</v>
+        <v>10989</v>
       </c>
     </row>
     <row r="136">
@@ -3011,7 +6178,7 @@
         <v>12</v>
       </c>
       <c r="D136" t="n">
-        <v>10389</v>
+        <v>4398</v>
       </c>
     </row>
     <row r="137">
@@ -3025,7 +6192,7 @@
         <v>15</v>
       </c>
       <c r="D137" t="n">
-        <v>2834</v>
+        <v>10922</v>
       </c>
     </row>
     <row r="138">
@@ -3039,7 +6206,7 @@
         <v>6</v>
       </c>
       <c r="D138" t="n">
-        <v>3313</v>
+        <v>3065</v>
       </c>
     </row>
     <row r="139">
@@ -3053,7 +6220,7 @@
         <v>9</v>
       </c>
       <c r="D139" t="n">
-        <v>1759</v>
+        <v>6385</v>
       </c>
     </row>
     <row r="140">
@@ -3067,7 +6234,7 @@
         <v>12</v>
       </c>
       <c r="D140" t="n">
-        <v>6089</v>
+        <v>8727</v>
       </c>
     </row>
     <row r="141">
@@ -3081,7 +6248,7 @@
         <v>15</v>
       </c>
       <c r="D141" t="n">
-        <v>4072</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="142">
@@ -3095,7 +6262,7 @@
         <v>6</v>
       </c>
       <c r="D142" t="n">
-        <v>10552</v>
+        <v>4522</v>
       </c>
     </row>
     <row r="143">
@@ -3109,7 +6276,7 @@
         <v>9</v>
       </c>
       <c r="D143" t="n">
-        <v>5230</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="144">
@@ -3123,7 +6290,7 @@
         <v>12</v>
       </c>
       <c r="D144" t="n">
-        <v>1480</v>
+        <v>3877</v>
       </c>
     </row>
     <row r="145">
@@ -3137,7 +6304,7 @@
         <v>15</v>
       </c>
       <c r="D145" t="n">
-        <v>10578</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="146">
@@ -3151,7 +6318,7 @@
         <v>6</v>
       </c>
       <c r="D146" t="n">
-        <v>1206</v>
+        <v>3368</v>
       </c>
     </row>
     <row r="147">
@@ -3165,7 +6332,7 @@
         <v>9</v>
       </c>
       <c r="D147" t="n">
-        <v>9922</v>
+        <v>8343</v>
       </c>
     </row>
     <row r="148">
@@ -3179,7 +6346,7 @@
         <v>12</v>
       </c>
       <c r="D148" t="n">
-        <v>1574</v>
+        <v>3438</v>
       </c>
     </row>
     <row r="149">
@@ -3193,7 +6360,7 @@
         <v>15</v>
       </c>
       <c r="D149" t="n">
-        <v>3507</v>
+        <v>8737</v>
       </c>
     </row>
     <row r="150">
@@ -3207,7 +6374,7 @@
         <v>6</v>
       </c>
       <c r="D150" t="n">
-        <v>2058</v>
+        <v>9416</v>
       </c>
     </row>
     <row r="151">
@@ -3221,7 +6388,7 @@
         <v>9</v>
       </c>
       <c r="D151" t="n">
-        <v>5851</v>
+        <v>4935</v>
       </c>
     </row>
     <row r="152">
@@ -3235,7 +6402,7 @@
         <v>12</v>
       </c>
       <c r="D152" t="n">
-        <v>7345</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="153">
@@ -3249,7 +6416,7 @@
         <v>15</v>
       </c>
       <c r="D153" t="n">
-        <v>8153</v>
+        <v>4104</v>
       </c>
     </row>
     <row r="154">
@@ -3263,7 +6430,7 @@
         <v>6</v>
       </c>
       <c r="D154" t="n">
-        <v>9910</v>
+        <v>5068</v>
       </c>
     </row>
     <row r="155">
@@ -3277,7 +6444,7 @@
         <v>9</v>
       </c>
       <c r="D155" t="n">
-        <v>1037</v>
+        <v>5755</v>
       </c>
     </row>
     <row r="156">
@@ -3291,7 +6458,7 @@
         <v>12</v>
       </c>
       <c r="D156" t="n">
-        <v>5170</v>
+        <v>9295</v>
       </c>
     </row>
     <row r="157">
@@ -3305,7 +6472,7 @@
         <v>15</v>
       </c>
       <c r="D157" t="n">
-        <v>6276</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="158">
@@ -3319,7 +6486,7 @@
         <v>6</v>
       </c>
       <c r="D158" t="n">
-        <v>2188</v>
+        <v>6196</v>
       </c>
     </row>
     <row r="159">
@@ -3333,7 +6500,7 @@
         <v>9</v>
       </c>
       <c r="D159" t="n">
-        <v>10549</v>
+        <v>10811</v>
       </c>
     </row>
     <row r="160">
@@ -3347,7 +6514,7 @@
         <v>12</v>
       </c>
       <c r="D160" t="n">
-        <v>6921</v>
+        <v>8289</v>
       </c>
     </row>
     <row r="161">
@@ -3361,7 +6528,7 @@
         <v>15</v>
       </c>
       <c r="D161" t="n">
-        <v>6161</v>
+        <v>4758</v>
       </c>
     </row>
     <row r="162">
@@ -3375,7 +6542,7 @@
         <v>6</v>
       </c>
       <c r="D162" t="n">
-        <v>3164</v>
+        <v>4923</v>
       </c>
     </row>
     <row r="163">
@@ -3389,7 +6556,7 @@
         <v>9</v>
       </c>
       <c r="D163" t="n">
-        <v>7208</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="164">
@@ -3403,7 +6570,7 @@
         <v>12</v>
       </c>
       <c r="D164" t="n">
-        <v>7242</v>
+        <v>6705</v>
       </c>
     </row>
     <row r="165">
@@ -3417,7 +6584,7 @@
         <v>15</v>
       </c>
       <c r="D165" t="n">
-        <v>1584</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="166">
@@ -3431,7 +6598,7 @@
         <v>6</v>
       </c>
       <c r="D166" t="n">
-        <v>3191</v>
+        <v>5929</v>
       </c>
     </row>
     <row r="167">
@@ -3445,7 +6612,7 @@
         <v>9</v>
       </c>
       <c r="D167" t="n">
-        <v>6739</v>
+        <v>7098</v>
       </c>
     </row>
     <row r="168">
@@ -3459,7 +6626,7 @@
         <v>12</v>
       </c>
       <c r="D168" t="n">
-        <v>5286</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="169">
@@ -3473,7 +6640,7 @@
         <v>15</v>
       </c>
       <c r="D169" t="n">
-        <v>2381</v>
+        <v>9187</v>
       </c>
     </row>
     <row r="170">
@@ -3487,7 +6654,7 @@
         <v>6</v>
       </c>
       <c r="D170" t="n">
-        <v>7976</v>
+        <v>6667</v>
       </c>
     </row>
     <row r="171">
@@ -3501,7 +6668,7 @@
         <v>9</v>
       </c>
       <c r="D171" t="n">
-        <v>4790</v>
+        <v>6987</v>
       </c>
     </row>
     <row r="172">
@@ -3515,7 +6682,7 @@
         <v>12</v>
       </c>
       <c r="D172" t="n">
-        <v>9403</v>
+        <v>8638</v>
       </c>
     </row>
     <row r="173">
@@ -3529,7 +6696,7 @@
         <v>15</v>
       </c>
       <c r="D173" t="n">
-        <v>8243</v>
+        <v>10290</v>
       </c>
     </row>
     <row r="174">
@@ -3543,7 +6710,7 @@
         <v>6</v>
       </c>
       <c r="D174" t="n">
-        <v>5744</v>
+        <v>5442</v>
       </c>
     </row>
     <row r="175">
@@ -3557,7 +6724,7 @@
         <v>9</v>
       </c>
       <c r="D175" t="n">
-        <v>3882</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="176">
@@ -3571,7 +6738,7 @@
         <v>12</v>
       </c>
       <c r="D176" t="n">
-        <v>4960</v>
+        <v>3150</v>
       </c>
     </row>
     <row r="177">
@@ -3585,7 +6752,7 @@
         <v>15</v>
       </c>
       <c r="D177" t="n">
-        <v>5720</v>
+        <v>2509</v>
       </c>
     </row>
     <row r="178">
@@ -3599,7 +6766,7 @@
         <v>6</v>
       </c>
       <c r="D178" t="n">
-        <v>3817</v>
+        <v>5439</v>
       </c>
     </row>
     <row r="179">
@@ -3613,7 +6780,7 @@
         <v>9</v>
       </c>
       <c r="D179" t="n">
-        <v>1727</v>
+        <v>5684</v>
       </c>
     </row>
     <row r="180">
@@ -3627,7 +6794,7 @@
         <v>12</v>
       </c>
       <c r="D180" t="n">
-        <v>4618</v>
+        <v>4224</v>
       </c>
     </row>
     <row r="181">
@@ -3641,7 +6808,7 @@
         <v>15</v>
       </c>
       <c r="D181" t="n">
-        <v>3115</v>
+        <v>3630</v>
       </c>
     </row>
     <row r="182">
@@ -3655,7 +6822,7 @@
         <v>6</v>
       </c>
       <c r="D182" t="n">
-        <v>7085</v>
+        <v>8843</v>
       </c>
     </row>
     <row r="183">
@@ -3669,7 +6836,7 @@
         <v>9</v>
       </c>
       <c r="D183" t="n">
-        <v>1221</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="184">
@@ -3683,7 +6850,7 @@
         <v>12</v>
       </c>
       <c r="D184" t="n">
-        <v>8303</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="185">
@@ -3697,7 +6864,7 @@
         <v>15</v>
       </c>
       <c r="D185" t="n">
-        <v>6534</v>
+        <v>10150</v>
       </c>
     </row>
     <row r="186">
@@ -3711,7 +6878,7 @@
         <v>6</v>
       </c>
       <c r="D186" t="n">
-        <v>5395</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="187">
@@ -3725,7 +6892,7 @@
         <v>9</v>
       </c>
       <c r="D187" t="n">
-        <v>3897</v>
+        <v>4046</v>
       </c>
     </row>
     <row r="188">
@@ -3739,7 +6906,7 @@
         <v>12</v>
       </c>
       <c r="D188" t="n">
-        <v>8843</v>
+        <v>2751</v>
       </c>
     </row>
     <row r="189">
@@ -3753,7 +6920,7 @@
         <v>15</v>
       </c>
       <c r="D189" t="n">
-        <v>6038</v>
+        <v>8826</v>
       </c>
     </row>
     <row r="190">
@@ -3767,7 +6934,7 @@
         <v>6</v>
       </c>
       <c r="D190" t="n">
-        <v>3931</v>
+        <v>10832</v>
       </c>
     </row>
     <row r="191">
@@ -3781,7 +6948,7 @@
         <v>9</v>
       </c>
       <c r="D191" t="n">
-        <v>7429</v>
+        <v>8940</v>
       </c>
     </row>
     <row r="192">
@@ -3795,7 +6962,7 @@
         <v>12</v>
       </c>
       <c r="D192" t="n">
-        <v>10850</v>
+        <v>9885</v>
       </c>
     </row>
     <row r="193">
@@ -3809,7 +6976,7 @@
         <v>15</v>
       </c>
       <c r="D193" t="n">
-        <v>9583</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="194">
@@ -3823,7 +6990,7 @@
         <v>6</v>
       </c>
       <c r="D194" t="n">
-        <v>4784</v>
+        <v>4246</v>
       </c>
     </row>
     <row r="195">
@@ -3837,7 +7004,7 @@
         <v>9</v>
       </c>
       <c r="D195" t="n">
-        <v>7831</v>
+        <v>5936</v>
       </c>
     </row>
     <row r="196">
@@ -3851,7 +7018,7 @@
         <v>12</v>
       </c>
       <c r="D196" t="n">
-        <v>10629</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="197">
@@ -3865,7 +7032,7 @@
         <v>15</v>
       </c>
       <c r="D197" t="n">
-        <v>8897</v>
+        <v>9015</v>
       </c>
     </row>
     <row r="198">
@@ -3879,7 +7046,7 @@
         <v>6</v>
       </c>
       <c r="D198" t="n">
-        <v>10862</v>
+        <v>9182</v>
       </c>
     </row>
     <row r="199">
@@ -3893,7 +7060,7 @@
         <v>9</v>
       </c>
       <c r="D199" t="n">
-        <v>3243</v>
+        <v>10622</v>
       </c>
     </row>
     <row r="200">
@@ -3907,7 +7074,7 @@
         <v>12</v>
       </c>
       <c r="D200" t="n">
-        <v>3835</v>
+        <v>6385</v>
       </c>
     </row>
     <row r="201">
@@ -3921,7 +7088,7 @@
         <v>15</v>
       </c>
       <c r="D201" t="n">
-        <v>5648</v>
+        <v>7102</v>
       </c>
     </row>
     <row r="202">
@@ -3935,7 +7102,7 @@
         <v>6</v>
       </c>
       <c r="D202" t="n">
-        <v>10060</v>
+        <v>4324</v>
       </c>
     </row>
     <row r="203">
@@ -3949,7 +7116,7 @@
         <v>9</v>
       </c>
       <c r="D203" t="n">
-        <v>4339</v>
+        <v>9789</v>
       </c>
     </row>
     <row r="204">
@@ -3963,7 +7130,7 @@
         <v>12</v>
       </c>
       <c r="D204" t="n">
-        <v>3737</v>
+        <v>8864</v>
       </c>
     </row>
     <row r="205">
@@ -3977,7 +7144,7 @@
         <v>15</v>
       </c>
       <c r="D205" t="n">
-        <v>8817</v>
+        <v>10741</v>
       </c>
     </row>
     <row r="206">
@@ -3991,7 +7158,7 @@
         <v>6</v>
       </c>
       <c r="D206" t="n">
-        <v>1839</v>
+        <v>8231</v>
       </c>
     </row>
     <row r="207">
@@ -4005,7 +7172,7 @@
         <v>9</v>
       </c>
       <c r="D207" t="n">
-        <v>2570</v>
+        <v>4556</v>
       </c>
     </row>
     <row r="208">
@@ -4019,7 +7186,7 @@
         <v>12</v>
       </c>
       <c r="D208" t="n">
-        <v>1313</v>
+        <v>4453</v>
       </c>
     </row>
     <row r="209">
@@ -4033,7 +7200,7 @@
         <v>15</v>
       </c>
       <c r="D209" t="n">
-        <v>7847</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="210">
@@ -4047,7 +7214,7 @@
         <v>6</v>
       </c>
       <c r="D210" t="n">
-        <v>6029</v>
+        <v>8174</v>
       </c>
     </row>
     <row r="211">
@@ -4061,7 +7228,7 @@
         <v>9</v>
       </c>
       <c r="D211" t="n">
-        <v>5744</v>
+        <v>3571</v>
       </c>
     </row>
     <row r="212">
@@ -4075,7 +7242,7 @@
         <v>12</v>
       </c>
       <c r="D212" t="n">
-        <v>2249</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="213">
@@ -4089,7 +7256,7 @@
         <v>15</v>
       </c>
       <c r="D213" t="n">
-        <v>7862</v>
+        <v>9735</v>
       </c>
     </row>
     <row r="214">
@@ -4103,7 +7270,7 @@
         <v>6</v>
       </c>
       <c r="D214" t="n">
-        <v>2728</v>
+        <v>3535</v>
       </c>
     </row>
     <row r="215">
@@ -4117,7 +7284,7 @@
         <v>9</v>
       </c>
       <c r="D215" t="n">
-        <v>3802</v>
+        <v>3229</v>
       </c>
     </row>
     <row r="216">
@@ -4131,7 +7298,7 @@
         <v>12</v>
       </c>
       <c r="D216" t="n">
-        <v>6041</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="217">
@@ -4145,7 +7312,7 @@
         <v>15</v>
       </c>
       <c r="D217" t="n">
-        <v>8423</v>
+        <v>4217</v>
       </c>
     </row>
     <row r="218">
@@ -4159,7 +7326,7 @@
         <v>6</v>
       </c>
       <c r="D218" t="n">
-        <v>6073</v>
+        <v>3160</v>
       </c>
     </row>
     <row r="219">
@@ -4173,7 +7340,7 @@
         <v>9</v>
       </c>
       <c r="D219" t="n">
-        <v>4455</v>
+        <v>2746</v>
       </c>
     </row>
     <row r="220">
@@ -4187,7 +7354,7 @@
         <v>12</v>
       </c>
       <c r="D220" t="n">
-        <v>7705</v>
+        <v>4590</v>
       </c>
     </row>
     <row r="221">
@@ -4201,7 +7368,7 @@
         <v>15</v>
       </c>
       <c r="D221" t="n">
-        <v>7114</v>
+        <v>6928</v>
       </c>
     </row>
     <row r="222">
@@ -4215,7 +7382,7 @@
         <v>6</v>
       </c>
       <c r="D222" t="n">
-        <v>3099</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="223">
@@ -4229,7 +7396,7 @@
         <v>9</v>
       </c>
       <c r="D223" t="n">
-        <v>5478</v>
+        <v>7988</v>
       </c>
     </row>
     <row r="224">
@@ -4243,7 +7410,7 @@
         <v>12</v>
       </c>
       <c r="D224" t="n">
-        <v>2244</v>
+        <v>8522</v>
       </c>
     </row>
     <row r="225">
@@ -4257,7 +7424,7 @@
         <v>15</v>
       </c>
       <c r="D225" t="n">
-        <v>3919</v>
+        <v>10432</v>
       </c>
     </row>
     <row r="226">
@@ -4271,7 +7438,7 @@
         <v>6</v>
       </c>
       <c r="D226" t="n">
-        <v>9665</v>
+        <v>10285</v>
       </c>
     </row>
     <row r="227">
@@ -4285,7 +7452,7 @@
         <v>9</v>
       </c>
       <c r="D227" t="n">
-        <v>7280</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="228">
@@ -4299,7 +7466,7 @@
         <v>12</v>
       </c>
       <c r="D228" t="n">
-        <v>2043</v>
+        <v>9374</v>
       </c>
     </row>
     <row r="229">
@@ -4313,7 +7480,7 @@
         <v>15</v>
       </c>
       <c r="D229" t="n">
-        <v>9105</v>
+        <v>10490</v>
       </c>
     </row>
     <row r="230">
@@ -4327,7 +7494,7 @@
         <v>6</v>
       </c>
       <c r="D230" t="n">
-        <v>8654</v>
+        <v>9624</v>
       </c>
     </row>
     <row r="231">
@@ -4341,7 +7508,7 @@
         <v>9</v>
       </c>
       <c r="D231" t="n">
-        <v>9578</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="232">
@@ -4355,7 +7522,7 @@
         <v>12</v>
       </c>
       <c r="D232" t="n">
-        <v>2704</v>
+        <v>9340</v>
       </c>
     </row>
     <row r="233">
@@ -4369,7 +7536,7 @@
         <v>15</v>
       </c>
       <c r="D233" t="n">
-        <v>7904</v>
+        <v>9291</v>
       </c>
     </row>
     <row r="234">
@@ -4383,7 +7550,7 @@
         <v>6</v>
       </c>
       <c r="D234" t="n">
-        <v>6085</v>
+        <v>10620</v>
       </c>
     </row>
     <row r="235">
@@ -4397,7 +7564,7 @@
         <v>9</v>
       </c>
       <c r="D235" t="n">
-        <v>7488</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="236">
@@ -4411,7 +7578,7 @@
         <v>12</v>
       </c>
       <c r="D236" t="n">
-        <v>6241</v>
+        <v>2749</v>
       </c>
     </row>
     <row r="237">
@@ -4425,7 +7592,7 @@
         <v>15</v>
       </c>
       <c r="D237" t="n">
-        <v>7145</v>
+        <v>10617</v>
       </c>
     </row>
     <row r="238">
@@ -4439,7 +7606,7 @@
         <v>6</v>
       </c>
       <c r="D238" t="n">
-        <v>1880</v>
+        <v>2788</v>
       </c>
     </row>
     <row r="239">
@@ -4453,7 +7620,7 @@
         <v>9</v>
       </c>
       <c r="D239" t="n">
-        <v>6684</v>
+        <v>3409</v>
       </c>
     </row>
     <row r="240">
@@ -4467,7 +7634,7 @@
         <v>12</v>
       </c>
       <c r="D240" t="n">
-        <v>3694</v>
+        <v>6428</v>
       </c>
     </row>
     <row r="241">
@@ -4481,7 +7648,7 @@
         <v>15</v>
       </c>
       <c r="D241" t="n">
-        <v>10853</v>
+        <v>7127</v>
       </c>
     </row>
     <row r="242">
@@ -4495,7 +7662,7 @@
         <v>6</v>
       </c>
       <c r="D242" t="n">
-        <v>4295</v>
+        <v>3308</v>
       </c>
     </row>
     <row r="243">
@@ -4509,7 +7676,7 @@
         <v>9</v>
       </c>
       <c r="D243" t="n">
-        <v>9902</v>
+        <v>10980</v>
       </c>
     </row>
     <row r="244">
@@ -4523,7 +7690,7 @@
         <v>12</v>
       </c>
       <c r="D244" t="n">
-        <v>3075</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="245">
@@ -4537,7 +7704,7 @@
         <v>15</v>
       </c>
       <c r="D245" t="n">
-        <v>9245</v>
+        <v>7501</v>
       </c>
     </row>
     <row r="246">
@@ -4551,7 +7718,7 @@
         <v>6</v>
       </c>
       <c r="D246" t="n">
-        <v>6415</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="247">
@@ -4565,7 +7732,7 @@
         <v>9</v>
       </c>
       <c r="D247" t="n">
-        <v>6806</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="248">
@@ -4579,7 +7746,7 @@
         <v>12</v>
       </c>
       <c r="D248" t="n">
-        <v>3268</v>
+        <v>10373</v>
       </c>
     </row>
     <row r="249">
@@ -4593,7 +7760,7 @@
         <v>15</v>
       </c>
       <c r="D249" t="n">
-        <v>8057</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="250">
@@ -4607,7 +7774,7 @@
         <v>6</v>
       </c>
       <c r="D250" t="n">
-        <v>4147</v>
+        <v>10112</v>
       </c>
     </row>
     <row r="251">
@@ -4621,7 +7788,7 @@
         <v>9</v>
       </c>
       <c r="D251" t="n">
-        <v>2605</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="252">
@@ -4635,7 +7802,7 @@
         <v>12</v>
       </c>
       <c r="D252" t="n">
-        <v>10149</v>
+        <v>9501</v>
       </c>
     </row>
     <row r="253">
@@ -4649,7 +7816,7 @@
         <v>15</v>
       </c>
       <c r="D253" t="n">
-        <v>2800</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="254">
@@ -4663,7 +7830,7 @@
         <v>6</v>
       </c>
       <c r="D254" t="n">
-        <v>7498</v>
+        <v>8906</v>
       </c>
     </row>
     <row r="255">
@@ -4677,7 +7844,7 @@
         <v>9</v>
       </c>
       <c r="D255" t="n">
-        <v>3788</v>
+        <v>10664</v>
       </c>
     </row>
     <row r="256">
@@ -4691,7 +7858,7 @@
         <v>12</v>
       </c>
       <c r="D256" t="n">
-        <v>6782</v>
+        <v>3435</v>
       </c>
     </row>
     <row r="257">
@@ -4705,7 +7872,7 @@
         <v>15</v>
       </c>
       <c r="D257" t="n">
-        <v>4700</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="258">
@@ -4719,7 +7886,7 @@
         <v>6</v>
       </c>
       <c r="D258" t="n">
-        <v>9690</v>
+        <v>4081</v>
       </c>
     </row>
     <row r="259">
@@ -4733,7 +7900,7 @@
         <v>9</v>
       </c>
       <c r="D259" t="n">
-        <v>2936</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="260">
@@ -4747,7 +7914,7 @@
         <v>12</v>
       </c>
       <c r="D260" t="n">
-        <v>9272</v>
+        <v>10505</v>
       </c>
     </row>
     <row r="261">
@@ -4761,7 +7928,7 @@
         <v>15</v>
       </c>
       <c r="D261" t="n">
-        <v>10416</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="262">
@@ -4775,7 +7942,7 @@
         <v>6</v>
       </c>
       <c r="D262" t="n">
-        <v>7399</v>
+        <v>7564</v>
       </c>
     </row>
     <row r="263">
@@ -4789,7 +7956,7 @@
         <v>9</v>
       </c>
       <c r="D263" t="n">
-        <v>1867</v>
+        <v>5334</v>
       </c>
     </row>
     <row r="264">
@@ -4803,7 +7970,7 @@
         <v>12</v>
       </c>
       <c r="D264" t="n">
-        <v>9430</v>
+        <v>4989</v>
       </c>
     </row>
     <row r="265">
@@ -4817,7 +7984,7 @@
         <v>15</v>
       </c>
       <c r="D265" t="n">
-        <v>1802</v>
+        <v>3221</v>
       </c>
     </row>
     <row r="266">
@@ -4831,7 +7998,7 @@
         <v>6</v>
       </c>
       <c r="D266" t="n">
-        <v>5376</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="267">
@@ -4845,7 +8012,7 @@
         <v>9</v>
       </c>
       <c r="D267" t="n">
-        <v>7020</v>
+        <v>5214</v>
       </c>
     </row>
     <row r="268">
@@ -4859,7 +8026,7 @@
         <v>12</v>
       </c>
       <c r="D268" t="n">
-        <v>2856</v>
+        <v>10866</v>
       </c>
     </row>
     <row r="269">
@@ -4873,7 +8040,7 @@
         <v>15</v>
       </c>
       <c r="D269" t="n">
-        <v>7586</v>
+        <v>10605</v>
       </c>
     </row>
     <row r="270">
@@ -4887,7 +8054,7 @@
         <v>6</v>
       </c>
       <c r="D270" t="n">
-        <v>9993</v>
+        <v>4159</v>
       </c>
     </row>
     <row r="271">
@@ -4901,7 +8068,7 @@
         <v>9</v>
       </c>
       <c r="D271" t="n">
-        <v>4706</v>
+        <v>6994</v>
       </c>
     </row>
     <row r="272">
@@ -4915,7 +8082,7 @@
         <v>12</v>
       </c>
       <c r="D272" t="n">
-        <v>6387</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="273">
@@ -4929,7 +8096,7 @@
         <v>15</v>
       </c>
       <c r="D273" t="n">
-        <v>4125</v>
+        <v>10236</v>
       </c>
     </row>
     <row r="274">
@@ -4943,7 +8110,7 @@
         <v>6</v>
       </c>
       <c r="D274" t="n">
-        <v>8199</v>
+        <v>4979</v>
       </c>
     </row>
     <row r="275">
@@ -4957,7 +8124,7 @@
         <v>9</v>
       </c>
       <c r="D275" t="n">
-        <v>5766</v>
+        <v>4680</v>
       </c>
     </row>
     <row r="276">
@@ -4971,7 +8138,7 @@
         <v>12</v>
       </c>
       <c r="D276" t="n">
-        <v>5975</v>
+        <v>3252</v>
       </c>
     </row>
     <row r="277">
@@ -4985,7 +8152,7 @@
         <v>15</v>
       </c>
       <c r="D277" t="n">
-        <v>3155</v>
+        <v>6391</v>
       </c>
     </row>
     <row r="278">
@@ -4999,7 +8166,7 @@
         <v>6</v>
       </c>
       <c r="D278" t="n">
-        <v>5482</v>
+        <v>4883</v>
       </c>
     </row>
     <row r="279">
@@ -5013,7 +8180,7 @@
         <v>9</v>
       </c>
       <c r="D279" t="n">
-        <v>8048</v>
+        <v>8438</v>
       </c>
     </row>
     <row r="280">
@@ -5027,7 +8194,7 @@
         <v>12</v>
       </c>
       <c r="D280" t="n">
-        <v>9345</v>
+        <v>9822</v>
       </c>
     </row>
     <row r="281">
@@ -5041,7 +8208,7 @@
         <v>15</v>
       </c>
       <c r="D281" t="n">
-        <v>10132</v>
+        <v>10768</v>
       </c>
     </row>
     <row r="282">
@@ -5055,7 +8222,7 @@
         <v>6</v>
       </c>
       <c r="D282" t="n">
-        <v>1173</v>
+        <v>9186</v>
       </c>
     </row>
     <row r="283">
@@ -5069,7 +8236,7 @@
         <v>9</v>
       </c>
       <c r="D283" t="n">
-        <v>10405</v>
+        <v>5562</v>
       </c>
     </row>
     <row r="284">
@@ -5083,7 +8250,7 @@
         <v>12</v>
       </c>
       <c r="D284" t="n">
-        <v>5301</v>
+        <v>5452</v>
       </c>
     </row>
     <row r="285">
@@ -5097,7 +8264,7 @@
         <v>15</v>
       </c>
       <c r="D285" t="n">
-        <v>9995</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="286">
@@ -5111,7 +8278,7 @@
         <v>6</v>
       </c>
       <c r="D286" t="n">
-        <v>7947</v>
+        <v>8462</v>
       </c>
     </row>
     <row r="287">
@@ -5125,7 +8292,7 @@
         <v>9</v>
       </c>
       <c r="D287" t="n">
-        <v>1898</v>
+        <v>10167</v>
       </c>
     </row>
     <row r="288">
@@ -5139,7 +8306,7 @@
         <v>12</v>
       </c>
       <c r="D288" t="n">
-        <v>3003</v>
+        <v>4597</v>
       </c>
     </row>
     <row r="289">
@@ -5153,7 +8320,7 @@
         <v>15</v>
       </c>
       <c r="D289" t="n">
-        <v>10555</v>
+        <v>5033</v>
       </c>
     </row>
     <row r="290">
@@ -5167,7 +8334,7 @@
         <v>6</v>
       </c>
       <c r="D290" t="n">
-        <v>6971</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="291">
@@ -5181,7 +8348,7 @@
         <v>9</v>
       </c>
       <c r="D291" t="n">
-        <v>1109</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="292">
@@ -5195,7 +8362,7 @@
         <v>12</v>
       </c>
       <c r="D292" t="n">
-        <v>1014</v>
+        <v>7646</v>
       </c>
     </row>
     <row r="293">
@@ -5209,7 +8376,7 @@
         <v>15</v>
       </c>
       <c r="D293" t="n">
-        <v>3758</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="294">
@@ -5223,7 +8390,7 @@
         <v>6</v>
       </c>
       <c r="D294" t="n">
-        <v>8065</v>
+        <v>10856</v>
       </c>
     </row>
     <row r="295">
@@ -5237,7 +8404,7 @@
         <v>9</v>
       </c>
       <c r="D295" t="n">
-        <v>4222</v>
+        <v>3880</v>
       </c>
     </row>
     <row r="296">
@@ -5251,7 +8418,7 @@
         <v>12</v>
       </c>
       <c r="D296" t="n">
-        <v>9687</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="297">
@@ -5265,7 +8432,7 @@
         <v>15</v>
       </c>
       <c r="D297" t="n">
-        <v>10233</v>
+        <v>9864</v>
       </c>
     </row>
     <row r="298">
@@ -5279,7 +8446,7 @@
         <v>6</v>
       </c>
       <c r="D298" t="n">
-        <v>5925</v>
+        <v>6294</v>
       </c>
     </row>
     <row r="299">
@@ -5293,7 +8460,7 @@
         <v>9</v>
       </c>
       <c r="D299" t="n">
-        <v>5185</v>
+        <v>4690</v>
       </c>
     </row>
     <row r="300">
@@ -5307,7 +8474,7 @@
         <v>12</v>
       </c>
       <c r="D300" t="n">
-        <v>8005</v>
+        <v>6841</v>
       </c>
     </row>
     <row r="301">
@@ -5321,7 +8488,7 @@
         <v>15</v>
       </c>
       <c r="D301" t="n">
-        <v>2258</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="302">
@@ -5335,7 +8502,7 @@
         <v>6</v>
       </c>
       <c r="D302" t="n">
-        <v>9105</v>
+        <v>3689</v>
       </c>
     </row>
     <row r="303">
@@ -5349,7 +8516,7 @@
         <v>9</v>
       </c>
       <c r="D303" t="n">
-        <v>3443</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="304">
@@ -5363,7 +8530,7 @@
         <v>12</v>
       </c>
       <c r="D304" t="n">
-        <v>4977</v>
+        <v>3541</v>
       </c>
     </row>
     <row r="305">
@@ -5377,7 +8544,7 @@
         <v>15</v>
       </c>
       <c r="D305" t="n">
-        <v>7929</v>
+        <v>5219</v>
       </c>
     </row>
     <row r="306">
@@ -5391,7 +8558,7 @@
         <v>6</v>
       </c>
       <c r="D306" t="n">
-        <v>9717</v>
+        <v>3509</v>
       </c>
     </row>
     <row r="307">
@@ -5405,7 +8572,7 @@
         <v>9</v>
       </c>
       <c r="D307" t="n">
-        <v>5332</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="308">
@@ -5419,7 +8586,7 @@
         <v>12</v>
       </c>
       <c r="D308" t="n">
-        <v>3910</v>
+        <v>9419</v>
       </c>
     </row>
     <row r="309">
@@ -5433,7 +8600,7 @@
         <v>15</v>
       </c>
       <c r="D309" t="n">
-        <v>8502</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="310">
@@ -5447,7 +8614,7 @@
         <v>6</v>
       </c>
       <c r="D310" t="n">
-        <v>7038</v>
+        <v>5370</v>
       </c>
     </row>
     <row r="311">
@@ -5461,7 +8628,7 @@
         <v>9</v>
       </c>
       <c r="D311" t="n">
-        <v>6915</v>
+        <v>2742</v>
       </c>
     </row>
     <row r="312">
@@ -5475,7 +8642,7 @@
         <v>12</v>
       </c>
       <c r="D312" t="n">
-        <v>8502</v>
+        <v>4879</v>
       </c>
     </row>
     <row r="313">
@@ -5489,7 +8656,7 @@
         <v>15</v>
       </c>
       <c r="D313" t="n">
-        <v>5883</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="314">
@@ -5503,7 +8670,7 @@
         <v>6</v>
       </c>
       <c r="D314" t="n">
-        <v>8886</v>
+        <v>6543</v>
       </c>
     </row>
     <row r="315">
@@ -5517,7 +8684,7 @@
         <v>9</v>
       </c>
       <c r="D315" t="n">
-        <v>3332</v>
+        <v>9113</v>
       </c>
     </row>
     <row r="316">
@@ -5531,7 +8698,7 @@
         <v>12</v>
       </c>
       <c r="D316" t="n">
-        <v>10183</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="317">
@@ -5545,7 +8712,7 @@
         <v>15</v>
       </c>
       <c r="D317" t="n">
-        <v>8599</v>
+        <v>9773</v>
       </c>
     </row>
     <row r="318">
@@ -5559,7 +8726,7 @@
         <v>6</v>
       </c>
       <c r="D318" t="n">
-        <v>7079</v>
+        <v>10816</v>
       </c>
     </row>
     <row r="319">
@@ -5573,7 +8740,7 @@
         <v>9</v>
       </c>
       <c r="D319" t="n">
-        <v>2546</v>
+        <v>4051</v>
       </c>
     </row>
     <row r="320">
@@ -5587,7 +8754,7 @@
         <v>12</v>
       </c>
       <c r="D320" t="n">
-        <v>9766</v>
+        <v>3665</v>
       </c>
     </row>
     <row r="321">
@@ -5601,7 +8768,7 @@
         <v>15</v>
       </c>
       <c r="D321" t="n">
-        <v>7875</v>
+        <v>10030</v>
       </c>
     </row>
     <row r="322">
@@ -5615,7 +8782,7 @@
         <v>6</v>
       </c>
       <c r="D322" t="n">
-        <v>7108</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="323">
@@ -5629,7 +8796,7 @@
         <v>9</v>
       </c>
       <c r="D323" t="n">
-        <v>7330</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="324">
@@ -5643,7 +8810,7 @@
         <v>12</v>
       </c>
       <c r="D324" t="n">
-        <v>1327</v>
+        <v>4566</v>
       </c>
     </row>
     <row r="325">
@@ -5657,7 +8824,7 @@
         <v>15</v>
       </c>
       <c r="D325" t="n">
-        <v>5383</v>
+        <v>6605</v>
       </c>
     </row>
     <row r="326">
@@ -5671,7 +8838,7 @@
         <v>6</v>
       </c>
       <c r="D326" t="n">
-        <v>4065</v>
+        <v>10754</v>
       </c>
     </row>
     <row r="327">
@@ -5685,7 +8852,7 @@
         <v>9</v>
       </c>
       <c r="D327" t="n">
-        <v>7049</v>
+        <v>7703</v>
       </c>
     </row>
     <row r="328">
@@ -5699,7 +8866,7 @@
         <v>12</v>
       </c>
       <c r="D328" t="n">
-        <v>9733</v>
+        <v>6198</v>
       </c>
     </row>
     <row r="329">
@@ -5713,7 +8880,7 @@
         <v>15</v>
       </c>
       <c r="D329" t="n">
-        <v>10514</v>
+        <v>2938</v>
       </c>
     </row>
     <row r="330">
@@ -5727,7 +8894,7 @@
         <v>6</v>
       </c>
       <c r="D330" t="n">
-        <v>10699</v>
+        <v>5666</v>
       </c>
     </row>
     <row r="331">
@@ -5741,7 +8908,7 @@
         <v>9</v>
       </c>
       <c r="D331" t="n">
-        <v>4149</v>
+        <v>9071</v>
       </c>
     </row>
     <row r="332">
@@ -5755,7 +8922,7 @@
         <v>12</v>
       </c>
       <c r="D332" t="n">
-        <v>4831</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="333">
@@ -5769,7 +8936,7 @@
         <v>15</v>
       </c>
       <c r="D333" t="n">
-        <v>4747</v>
+        <v>9341</v>
       </c>
     </row>
     <row r="334">
@@ -5783,7 +8950,7 @@
         <v>6</v>
       </c>
       <c r="D334" t="n">
-        <v>7834</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="335">
@@ -5797,7 +8964,7 @@
         <v>9</v>
       </c>
       <c r="D335" t="n">
-        <v>4331</v>
+        <v>3987</v>
       </c>
     </row>
     <row r="336">
@@ -5811,7 +8978,7 @@
         <v>12</v>
       </c>
       <c r="D336" t="n">
-        <v>10383</v>
+        <v>8863</v>
       </c>
     </row>
     <row r="337">
@@ -5825,7 +8992,7 @@
         <v>15</v>
       </c>
       <c r="D337" t="n">
-        <v>6510</v>
+        <v>9115</v>
       </c>
     </row>
     <row r="338">
@@ -5839,7 +9006,7 @@
         <v>6</v>
       </c>
       <c r="D338" t="n">
-        <v>7558</v>
+        <v>8724</v>
       </c>
     </row>
     <row r="339">
@@ -5853,7 +9020,7 @@
         <v>9</v>
       </c>
       <c r="D339" t="n">
-        <v>2209</v>
+        <v>9639</v>
       </c>
     </row>
     <row r="340">
@@ -5867,7 +9034,7 @@
         <v>12</v>
       </c>
       <c r="D340" t="n">
-        <v>5677</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="341">
@@ -5881,7 +9048,7 @@
         <v>15</v>
       </c>
       <c r="D341" t="n">
-        <v>7039</v>
+        <v>10329</v>
       </c>
     </row>
     <row r="342">
@@ -5895,7 +9062,7 @@
         <v>6</v>
       </c>
       <c r="D342" t="n">
-        <v>1818</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="343">
@@ -5909,7 +9076,7 @@
         <v>9</v>
       </c>
       <c r="D343" t="n">
-        <v>6582</v>
+        <v>10119</v>
       </c>
     </row>
     <row r="344">
@@ -5923,7 +9090,7 @@
         <v>12</v>
       </c>
       <c r="D344" t="n">
-        <v>3961</v>
+        <v>8002</v>
       </c>
     </row>
     <row r="345">
@@ -5937,7 +9104,7 @@
         <v>15</v>
       </c>
       <c r="D345" t="n">
-        <v>5427</v>
+        <v>7057</v>
       </c>
     </row>
     <row r="346">
@@ -5951,7 +9118,7 @@
         <v>6</v>
       </c>
       <c r="D346" t="n">
-        <v>3642</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="347">
@@ -5965,7 +9132,7 @@
         <v>9</v>
       </c>
       <c r="D347" t="n">
-        <v>1522</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="348">
@@ -5979,7 +9146,7 @@
         <v>12</v>
       </c>
       <c r="D348" t="n">
-        <v>10775</v>
+        <v>5453</v>
       </c>
     </row>
     <row r="349">
@@ -5993,7 +9160,7 @@
         <v>15</v>
       </c>
       <c r="D349" t="n">
-        <v>4471</v>
+        <v>10772</v>
       </c>
     </row>
     <row r="350">
@@ -6007,7 +9174,7 @@
         <v>6</v>
       </c>
       <c r="D350" t="n">
-        <v>2804</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="351">
@@ -6021,7 +9188,7 @@
         <v>9</v>
       </c>
       <c r="D351" t="n">
-        <v>7669</v>
+        <v>5649</v>
       </c>
     </row>
     <row r="352">
@@ -6035,7 +9202,7 @@
         <v>12</v>
       </c>
       <c r="D352" t="n">
-        <v>7148</v>
+        <v>7696</v>
       </c>
     </row>
     <row r="353">
@@ -6049,7 +9216,7 @@
         <v>15</v>
       </c>
       <c r="D353" t="n">
-        <v>6334</v>
+        <v>7994</v>
       </c>
     </row>
     <row r="354">
@@ -6063,7 +9230,7 @@
         <v>6</v>
       </c>
       <c r="D354" t="n">
-        <v>6174</v>
+        <v>9359</v>
       </c>
     </row>
     <row r="355">
@@ -6077,7 +9244,7 @@
         <v>9</v>
       </c>
       <c r="D355" t="n">
-        <v>9611</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="356">
@@ -6091,7 +9258,7 @@
         <v>12</v>
       </c>
       <c r="D356" t="n">
-        <v>5598</v>
+        <v>9033</v>
       </c>
     </row>
     <row r="357">
@@ -6105,7 +9272,7 @@
         <v>15</v>
       </c>
       <c r="D357" t="n">
-        <v>1847</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="358">
@@ -6119,7 +9286,7 @@
         <v>6</v>
       </c>
       <c r="D358" t="n">
-        <v>2517</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="359">
@@ -6133,7 +9300,7 @@
         <v>9</v>
       </c>
       <c r="D359" t="n">
-        <v>3917</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="360">
@@ -6147,7 +9314,7 @@
         <v>12</v>
       </c>
       <c r="D360" t="n">
-        <v>8633</v>
+        <v>8453</v>
       </c>
     </row>
     <row r="361">
@@ -6161,7 +9328,7 @@
         <v>15</v>
       </c>
       <c r="D361" t="n">
-        <v>5620</v>
+        <v>10965</v>
       </c>
     </row>
     <row r="362">
@@ -6175,7 +9342,7 @@
         <v>6</v>
       </c>
       <c r="D362" t="n">
-        <v>10935</v>
+        <v>3409</v>
       </c>
     </row>
     <row r="363">
@@ -6189,7 +9356,7 @@
         <v>9</v>
       </c>
       <c r="D363" t="n">
-        <v>8034</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="364">
@@ -6203,7 +9370,7 @@
         <v>12</v>
       </c>
       <c r="D364" t="n">
-        <v>10864</v>
+        <v>9529</v>
       </c>
     </row>
     <row r="365">
@@ -6217,7 +9384,7 @@
         <v>15</v>
       </c>
       <c r="D365" t="n">
-        <v>3583</v>
+        <v>3283</v>
       </c>
     </row>
     <row r="366">
@@ -6231,7 +9398,7 @@
         <v>6</v>
       </c>
       <c r="D366" t="n">
-        <v>3459</v>
+        <v>7207</v>
       </c>
     </row>
     <row r="367">
@@ -6245,7 +9412,7 @@
         <v>9</v>
       </c>
       <c r="D367" t="n">
-        <v>7579</v>
+        <v>5992</v>
       </c>
     </row>
     <row r="368">
@@ -6259,7 +9426,7 @@
         <v>12</v>
       </c>
       <c r="D368" t="n">
-        <v>2123</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="369">
@@ -6273,7 +9440,7 @@
         <v>15</v>
       </c>
       <c r="D369" t="n">
-        <v>3005</v>
+        <v>5637</v>
       </c>
     </row>
     <row r="370">
@@ -6287,7 +9454,7 @@
         <v>6</v>
       </c>
       <c r="D370" t="n">
-        <v>10989</v>
+        <v>5212</v>
       </c>
     </row>
     <row r="371">
@@ -6301,7 +9468,7 @@
         <v>9</v>
       </c>
       <c r="D371" t="n">
-        <v>6713</v>
+        <v>3915</v>
       </c>
     </row>
     <row r="372">
@@ -6315,7 +9482,7 @@
         <v>12</v>
       </c>
       <c r="D372" t="n">
-        <v>9464</v>
+        <v>3464</v>
       </c>
     </row>
     <row r="373">
@@ -6329,7 +9496,7 @@
         <v>15</v>
       </c>
       <c r="D373" t="n">
-        <v>1852</v>
+        <v>7632</v>
       </c>
     </row>
     <row r="374">
@@ -6343,7 +9510,7 @@
         <v>6</v>
       </c>
       <c r="D374" t="n">
-        <v>10270</v>
+        <v>6253</v>
       </c>
     </row>
     <row r="375">
@@ -6357,7 +9524,7 @@
         <v>9</v>
       </c>
       <c r="D375" t="n">
-        <v>8575</v>
+        <v>8981</v>
       </c>
     </row>
     <row r="376">
@@ -6371,7 +9538,7 @@
         <v>12</v>
       </c>
       <c r="D376" t="n">
-        <v>2940</v>
+        <v>8895</v>
       </c>
     </row>
     <row r="377">
@@ -6385,7 +9552,7 @@
         <v>15</v>
       </c>
       <c r="D377" t="n">
-        <v>10706</v>
+        <v>5280</v>
       </c>
     </row>
     <row r="378">
@@ -6399,7 +9566,7 @@
         <v>6</v>
       </c>
       <c r="D378" t="n">
-        <v>9714</v>
+        <v>8230</v>
       </c>
     </row>
     <row r="379">
@@ -6413,7 +9580,7 @@
         <v>9</v>
       </c>
       <c r="D379" t="n">
-        <v>4156</v>
+        <v>8442</v>
       </c>
     </row>
     <row r="380">
@@ -6427,7 +9594,7 @@
         <v>12</v>
       </c>
       <c r="D380" t="n">
-        <v>4932</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="381">
@@ -6441,7 +9608,7 @@
         <v>15</v>
       </c>
       <c r="D381" t="n">
-        <v>2920</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="382">
@@ -6455,7 +9622,7 @@
         <v>6</v>
       </c>
       <c r="D382" t="n">
-        <v>4108</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="383">
@@ -6469,7 +9636,7 @@
         <v>9</v>
       </c>
       <c r="D383" t="n">
-        <v>7876</v>
+        <v>5423</v>
       </c>
     </row>
     <row r="384">
@@ -6483,7 +9650,7 @@
         <v>12</v>
       </c>
       <c r="D384" t="n">
-        <v>10132</v>
+        <v>8776</v>
       </c>
     </row>
     <row r="385">
@@ -6497,7 +9664,7 @@
         <v>15</v>
       </c>
       <c r="D385" t="n">
-        <v>5431</v>
+        <v>8791</v>
       </c>
     </row>
     <row r="386">
@@ -6511,7 +9678,7 @@
         <v>6</v>
       </c>
       <c r="D386" t="n">
-        <v>2962</v>
+        <v>2932</v>
       </c>
     </row>
     <row r="387">
@@ -6525,7 +9692,7 @@
         <v>9</v>
       </c>
       <c r="D387" t="n">
-        <v>7664</v>
+        <v>2849</v>
       </c>
     </row>
     <row r="388">
@@ -6539,7 +9706,7 @@
         <v>12</v>
       </c>
       <c r="D388" t="n">
-        <v>8280</v>
+        <v>3267</v>
       </c>
     </row>
     <row r="389">
@@ -6553,7 +9720,7 @@
         <v>15</v>
       </c>
       <c r="D389" t="n">
-        <v>10383</v>
+        <v>8318</v>
       </c>
     </row>
     <row r="390">
@@ -6567,7 +9734,7 @@
         <v>6</v>
       </c>
       <c r="D390" t="n">
-        <v>7186</v>
+        <v>10998</v>
       </c>
     </row>
     <row r="391">
@@ -6581,7 +9748,7 @@
         <v>9</v>
       </c>
       <c r="D391" t="n">
-        <v>10925</v>
+        <v>10370</v>
       </c>
     </row>
     <row r="392">
@@ -6595,7 +9762,7 @@
         <v>12</v>
       </c>
       <c r="D392" t="n">
-        <v>7472</v>
+        <v>3974</v>
       </c>
     </row>
     <row r="393">
@@ -6609,7 +9776,7 @@
         <v>15</v>
       </c>
       <c r="D393" t="n">
-        <v>10151</v>
+        <v>2915</v>
       </c>
     </row>
     <row r="394">
@@ -6623,7 +9790,7 @@
         <v>6</v>
       </c>
       <c r="D394" t="n">
-        <v>10020</v>
+        <v>7028</v>
       </c>
     </row>
     <row r="395">
@@ -6637,7 +9804,7 @@
         <v>9</v>
       </c>
       <c r="D395" t="n">
-        <v>10555</v>
+        <v>10296</v>
       </c>
     </row>
     <row r="396">
@@ -6651,7 +9818,7 @@
         <v>12</v>
       </c>
       <c r="D396" t="n">
-        <v>1073</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="397">
@@ -6665,7 +9832,7 @@
         <v>15</v>
       </c>
       <c r="D397" t="n">
-        <v>7342</v>
+        <v>8613</v>
       </c>
     </row>
     <row r="398">
@@ -6679,7 +9846,7 @@
         <v>6</v>
       </c>
       <c r="D398" t="n">
-        <v>5248</v>
+        <v>6929</v>
       </c>
     </row>
     <row r="399">
@@ -6693,7 +9860,7 @@
         <v>9</v>
       </c>
       <c r="D399" t="n">
-        <v>8665</v>
+        <v>4141</v>
       </c>
     </row>
     <row r="400">
@@ -6707,7 +9874,7 @@
         <v>12</v>
       </c>
       <c r="D400" t="n">
-        <v>6566</v>
+        <v>6725</v>
       </c>
     </row>
     <row r="401">
@@ -6721,7 +9888,7 @@
         <v>15</v>
       </c>
       <c r="D401" t="n">
-        <v>3895</v>
+        <v>5206</v>
       </c>
     </row>
     <row r="402">
@@ -6735,7 +9902,7 @@
         <v>6</v>
       </c>
       <c r="D402" t="n">
-        <v>1281</v>
+        <v>7846</v>
       </c>
     </row>
     <row r="403">
@@ -6749,7 +9916,7 @@
         <v>9</v>
       </c>
       <c r="D403" t="n">
-        <v>3144</v>
+        <v>9570</v>
       </c>
     </row>
     <row r="404">
@@ -6763,7 +9930,7 @@
         <v>12</v>
       </c>
       <c r="D404" t="n">
-        <v>8281</v>
+        <v>2618</v>
       </c>
     </row>
     <row r="405">
@@ -6777,7 +9944,7 @@
         <v>15</v>
       </c>
       <c r="D405" t="n">
-        <v>5849</v>
+        <v>10129</v>
       </c>
     </row>
     <row r="406">
@@ -6791,7 +9958,7 @@
         <v>6</v>
       </c>
       <c r="D406" t="n">
-        <v>9019</v>
+        <v>5397</v>
       </c>
     </row>
     <row r="407">
@@ -6805,7 +9972,7 @@
         <v>9</v>
       </c>
       <c r="D407" t="n">
-        <v>6427</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="408">
@@ -6819,7 +9986,7 @@
         <v>12</v>
       </c>
       <c r="D408" t="n">
-        <v>10354</v>
+        <v>8205</v>
       </c>
     </row>
     <row r="409">
@@ -6833,7 +10000,7 @@
         <v>15</v>
       </c>
       <c r="D409" t="n">
-        <v>8465</v>
+        <v>3435</v>
       </c>
     </row>
     <row r="410">
@@ -6847,7 +10014,7 @@
         <v>6</v>
       </c>
       <c r="D410" t="n">
-        <v>10575</v>
+        <v>9274</v>
       </c>
     </row>
     <row r="411">
@@ -6861,7 +10028,7 @@
         <v>9</v>
       </c>
       <c r="D411" t="n">
-        <v>3429</v>
+        <v>8903</v>
       </c>
     </row>
     <row r="412">
@@ -6875,7 +10042,7 @@
         <v>12</v>
       </c>
       <c r="D412" t="n">
-        <v>3488</v>
+        <v>8207</v>
       </c>
     </row>
     <row r="413">
@@ -6889,7 +10056,7 @@
         <v>15</v>
       </c>
       <c r="D413" t="n">
-        <v>1576</v>
+        <v>9087</v>
       </c>
     </row>
     <row r="414">
@@ -6903,7 +10070,7 @@
         <v>6</v>
       </c>
       <c r="D414" t="n">
-        <v>8330</v>
+        <v>3046</v>
       </c>
     </row>
     <row r="415">
@@ -6917,7 +10084,7 @@
         <v>9</v>
       </c>
       <c r="D415" t="n">
-        <v>3520</v>
+        <v>7893</v>
       </c>
     </row>
     <row r="416">
@@ -6931,7 +10098,7 @@
         <v>12</v>
       </c>
       <c r="D416" t="n">
-        <v>5177</v>
+        <v>8978</v>
       </c>
     </row>
     <row r="417">
@@ -6945,7 +10112,7 @@
         <v>15</v>
       </c>
       <c r="D417" t="n">
-        <v>3568</v>
+        <v>8704</v>
       </c>
     </row>
     <row r="418">
@@ -6959,7 +10126,7 @@
         <v>6</v>
       </c>
       <c r="D418" t="n">
-        <v>6844</v>
+        <v>7242</v>
       </c>
     </row>
     <row r="419">
@@ -6973,7 +10140,7 @@
         <v>9</v>
       </c>
       <c r="D419" t="n">
-        <v>6704</v>
+        <v>8049</v>
       </c>
     </row>
     <row r="420">
@@ -6987,7 +10154,7 @@
         <v>12</v>
       </c>
       <c r="D420" t="n">
-        <v>6084</v>
+        <v>4345</v>
       </c>
     </row>
     <row r="421">
@@ -7001,7 +10168,7 @@
         <v>15</v>
       </c>
       <c r="D421" t="n">
-        <v>5270</v>
+        <v>8624</v>
       </c>
     </row>
     <row r="422">
@@ -7015,7 +10182,7 @@
         <v>6</v>
       </c>
       <c r="D422" t="n">
-        <v>4071</v>
+        <v>7801</v>
       </c>
     </row>
     <row r="423">
@@ -7029,7 +10196,7 @@
         <v>9</v>
       </c>
       <c r="D423" t="n">
-        <v>2663</v>
+        <v>9749</v>
       </c>
     </row>
     <row r="424">
@@ -7043,7 +10210,7 @@
         <v>12</v>
       </c>
       <c r="D424" t="n">
-        <v>5680</v>
+        <v>8914</v>
       </c>
     </row>
     <row r="425">
@@ -7057,7 +10224,7 @@
         <v>15</v>
       </c>
       <c r="D425" t="n">
-        <v>3034</v>
+        <v>4251</v>
       </c>
     </row>
     <row r="426">
@@ -7071,7 +10238,7 @@
         <v>6</v>
       </c>
       <c r="D426" t="n">
-        <v>2506</v>
+        <v>6728</v>
       </c>
     </row>
     <row r="427">
@@ -7085,7 +10252,7 @@
         <v>9</v>
       </c>
       <c r="D427" t="n">
-        <v>3653</v>
+        <v>3480</v>
       </c>
     </row>
     <row r="428">
@@ -7099,7 +10266,7 @@
         <v>12</v>
       </c>
       <c r="D428" t="n">
-        <v>4607</v>
+        <v>6347</v>
       </c>
     </row>
     <row r="429">
@@ -7113,7 +10280,7 @@
         <v>15</v>
       </c>
       <c r="D429" t="n">
-        <v>6005</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="430">
@@ -7127,7 +10294,7 @@
         <v>6</v>
       </c>
       <c r="D430" t="n">
-        <v>3686</v>
+        <v>8449</v>
       </c>
     </row>
     <row r="431">
@@ -7141,7 +10308,7 @@
         <v>9</v>
       </c>
       <c r="D431" t="n">
-        <v>2002</v>
+        <v>8664</v>
       </c>
     </row>
     <row r="432">
@@ -7155,7 +10322,7 @@
         <v>12</v>
       </c>
       <c r="D432" t="n">
-        <v>6005</v>
+        <v>3053</v>
       </c>
     </row>
     <row r="433">
@@ -7169,7 +10336,7 @@
         <v>15</v>
       </c>
       <c r="D433" t="n">
-        <v>7483</v>
+        <v>9223</v>
       </c>
     </row>
     <row r="434">
@@ -7183,7 +10350,7 @@
         <v>6</v>
       </c>
       <c r="D434" t="n">
-        <v>8379</v>
+        <v>10221</v>
       </c>
     </row>
     <row r="435">
@@ -7197,7 +10364,7 @@
         <v>9</v>
       </c>
       <c r="D435" t="n">
-        <v>2946</v>
+        <v>9248</v>
       </c>
     </row>
     <row r="436">
@@ -7211,7 +10378,7 @@
         <v>12</v>
       </c>
       <c r="D436" t="n">
-        <v>3610</v>
+        <v>10646</v>
       </c>
     </row>
     <row r="437">
@@ -7225,7 +10392,7 @@
         <v>15</v>
       </c>
       <c r="D437" t="n">
-        <v>2223</v>
+        <v>8453</v>
       </c>
     </row>
     <row r="438">
@@ -7239,7 +10406,7 @@
         <v>6</v>
       </c>
       <c r="D438" t="n">
-        <v>4965</v>
+        <v>10267</v>
       </c>
     </row>
     <row r="439">
@@ -7253,7 +10420,7 @@
         <v>9</v>
       </c>
       <c r="D439" t="n">
-        <v>9504</v>
+        <v>10326</v>
       </c>
     </row>
     <row r="440">
@@ -7267,7 +10434,7 @@
         <v>12</v>
       </c>
       <c r="D440" t="n">
-        <v>7712</v>
+        <v>2944</v>
       </c>
     </row>
     <row r="441">
@@ -7281,7 +10448,7 @@
         <v>15</v>
       </c>
       <c r="D441" t="n">
-        <v>4513</v>
+        <v>9064</v>
       </c>
     </row>
     <row r="442">
@@ -7295,7 +10462,7 @@
         <v>6</v>
       </c>
       <c r="D442" t="n">
-        <v>4148</v>
+        <v>8064</v>
       </c>
     </row>
     <row r="443">
@@ -7309,7 +10476,7 @@
         <v>9</v>
       </c>
       <c r="D443" t="n">
-        <v>6639</v>
+        <v>8347</v>
       </c>
     </row>
     <row r="444">
@@ -7323,7 +10490,7 @@
         <v>12</v>
       </c>
       <c r="D444" t="n">
-        <v>2949</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="445">
@@ -7337,7 +10504,7 @@
         <v>15</v>
       </c>
       <c r="D445" t="n">
-        <v>10929</v>
+        <v>9098</v>
       </c>
     </row>
     <row r="446">
@@ -7351,7 +10518,7 @@
         <v>6</v>
       </c>
       <c r="D446" t="n">
-        <v>6044</v>
+        <v>6377</v>
       </c>
     </row>
     <row r="447">
@@ -7365,7 +10532,7 @@
         <v>9</v>
       </c>
       <c r="D447" t="n">
-        <v>5694</v>
+        <v>10955</v>
       </c>
     </row>
     <row r="448">
@@ -7379,7 +10546,7 @@
         <v>12</v>
       </c>
       <c r="D448" t="n">
-        <v>8780</v>
+        <v>5856</v>
       </c>
     </row>
     <row r="449">
@@ -7393,7 +10560,7 @@
         <v>15</v>
       </c>
       <c r="D449" t="n">
-        <v>1911</v>
+        <v>5797</v>
       </c>
     </row>
     <row r="450">
@@ -7407,7 +10574,7 @@
         <v>6</v>
       </c>
       <c r="D450" t="n">
-        <v>4979</v>
+        <v>3379</v>
       </c>
     </row>
     <row r="451">
@@ -7421,7 +10588,7 @@
         <v>9</v>
       </c>
       <c r="D451" t="n">
-        <v>5671</v>
+        <v>7158</v>
       </c>
     </row>
     <row r="452">
@@ -7435,7 +10602,7 @@
         <v>12</v>
       </c>
       <c r="D452" t="n">
-        <v>6008</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="453">
@@ -7449,7 +10616,7 @@
         <v>15</v>
       </c>
       <c r="D453" t="n">
-        <v>1125</v>
+        <v>3629</v>
       </c>
     </row>
     <row r="454">
@@ -7463,7 +10630,7 @@
         <v>6</v>
       </c>
       <c r="D454" t="n">
-        <v>5690</v>
+        <v>8741</v>
       </c>
     </row>
     <row r="455">
@@ -7477,7 +10644,7 @@
         <v>9</v>
       </c>
       <c r="D455" t="n">
-        <v>6895</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="456">
@@ -7491,7 +10658,7 @@
         <v>12</v>
       </c>
       <c r="D456" t="n">
-        <v>8470</v>
+        <v>8174</v>
       </c>
     </row>
     <row r="457">
@@ -7505,7 +10672,7 @@
         <v>15</v>
       </c>
       <c r="D457" t="n">
-        <v>5167</v>
+        <v>3016</v>
       </c>
     </row>
     <row r="458">
@@ -7519,7 +10686,7 @@
         <v>6</v>
       </c>
       <c r="D458" t="n">
-        <v>1448</v>
+        <v>3837</v>
       </c>
     </row>
     <row r="459">
@@ -7533,7 +10700,7 @@
         <v>9</v>
       </c>
       <c r="D459" t="n">
-        <v>8727</v>
+        <v>9371</v>
       </c>
     </row>
     <row r="460">
@@ -7547,7 +10714,7 @@
         <v>12</v>
       </c>
       <c r="D460" t="n">
-        <v>4151</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="461">
@@ -7561,7 +10728,7 @@
         <v>15</v>
       </c>
       <c r="D461" t="n">
-        <v>5614</v>
+        <v>8469</v>
       </c>
     </row>
     <row r="462">
@@ -7575,7 +10742,7 @@
         <v>6</v>
       </c>
       <c r="D462" t="n">
-        <v>8490</v>
+        <v>10752</v>
       </c>
     </row>
     <row r="463">
@@ -7589,7 +10756,7 @@
         <v>9</v>
       </c>
       <c r="D463" t="n">
-        <v>9263</v>
+        <v>4167</v>
       </c>
     </row>
     <row r="464">
@@ -7603,7 +10770,7 @@
         <v>12</v>
       </c>
       <c r="D464" t="n">
-        <v>3459</v>
+        <v>8572</v>
       </c>
     </row>
     <row r="465">
@@ -7617,7 +10784,7 @@
         <v>15</v>
       </c>
       <c r="D465" t="n">
-        <v>8906</v>
+        <v>4232</v>
       </c>
     </row>
     <row r="466">
@@ -7631,7 +10798,7 @@
         <v>6</v>
       </c>
       <c r="D466" t="n">
-        <v>4735</v>
+        <v>10694</v>
       </c>
     </row>
     <row r="467">
@@ -7645,7 +10812,7 @@
         <v>9</v>
       </c>
       <c r="D467" t="n">
-        <v>7517</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="468">
@@ -7659,7 +10826,7 @@
         <v>12</v>
       </c>
       <c r="D468" t="n">
-        <v>6926</v>
+        <v>7127</v>
       </c>
     </row>
     <row r="469">
@@ -7673,7 +10840,7 @@
         <v>15</v>
       </c>
       <c r="D469" t="n">
-        <v>1193</v>
+        <v>6929</v>
       </c>
     </row>
     <row r="470">
@@ -7687,7 +10854,7 @@
         <v>6</v>
       </c>
       <c r="D470" t="n">
-        <v>9286</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="471">
@@ -7701,7 +10868,7 @@
         <v>9</v>
       </c>
       <c r="D471" t="n">
-        <v>8449</v>
+        <v>7175</v>
       </c>
     </row>
     <row r="472">
@@ -7715,7 +10882,7 @@
         <v>12</v>
       </c>
       <c r="D472" t="n">
-        <v>10382</v>
+        <v>4867</v>
       </c>
     </row>
     <row r="473">
@@ -7729,7 +10896,7 @@
         <v>15</v>
       </c>
       <c r="D473" t="n">
-        <v>9313</v>
+        <v>3548</v>
       </c>
     </row>
     <row r="474">
@@ -7743,7 +10910,7 @@
         <v>6</v>
       </c>
       <c r="D474" t="n">
-        <v>5957</v>
+        <v>8884</v>
       </c>
     </row>
     <row r="475">
@@ -7757,7 +10924,7 @@
         <v>9</v>
       </c>
       <c r="D475" t="n">
-        <v>2928</v>
+        <v>5788</v>
       </c>
     </row>
     <row r="476">
@@ -7771,7 +10938,7 @@
         <v>12</v>
       </c>
       <c r="D476" t="n">
-        <v>2584</v>
+        <v>2654</v>
       </c>
     </row>
     <row r="477">
@@ -7785,7 +10952,7 @@
         <v>15</v>
       </c>
       <c r="D477" t="n">
-        <v>9651</v>
+        <v>10248</v>
       </c>
     </row>
     <row r="478">
@@ -7799,7 +10966,7 @@
         <v>6</v>
       </c>
       <c r="D478" t="n">
-        <v>5652</v>
+        <v>10794</v>
       </c>
     </row>
     <row r="479">
@@ -7813,7 +10980,7 @@
         <v>9</v>
       </c>
       <c r="D479" t="n">
-        <v>7364</v>
+        <v>10541</v>
       </c>
     </row>
     <row r="480">
@@ -7827,7 +10994,7 @@
         <v>12</v>
       </c>
       <c r="D480" t="n">
-        <v>10512</v>
+        <v>6994</v>
       </c>
     </row>
     <row r="481">
@@ -7841,7 +11008,7 @@
         <v>15</v>
       </c>
       <c r="D481" t="n">
-        <v>4502</v>
+        <v>3274</v>
       </c>
     </row>
     <row r="482">
@@ -7855,7 +11022,7 @@
         <v>6</v>
       </c>
       <c r="D482" t="n">
-        <v>3083</v>
+        <v>8196</v>
       </c>
     </row>
     <row r="483">
@@ -7869,7 +11036,7 @@
         <v>9</v>
       </c>
       <c r="D483" t="n">
-        <v>3100</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="484">
@@ -7883,7 +11050,7 @@
         <v>12</v>
       </c>
       <c r="D484" t="n">
-        <v>3889</v>
+        <v>4501</v>
       </c>
     </row>
     <row r="485">
@@ -7897,7 +11064,7 @@
         <v>15</v>
       </c>
       <c r="D485" t="n">
-        <v>6487</v>
+        <v>8555</v>
       </c>
     </row>
     <row r="486">
@@ -7911,7 +11078,7 @@
         <v>6</v>
       </c>
       <c r="D486" t="n">
-        <v>1917</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="487">
@@ -7925,7 +11092,7 @@
         <v>9</v>
       </c>
       <c r="D487" t="n">
-        <v>4734</v>
+        <v>3354</v>
       </c>
     </row>
     <row r="488">
@@ -7939,7 +11106,7 @@
         <v>12</v>
       </c>
       <c r="D488" t="n">
-        <v>2768</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="489">
@@ -7953,7 +11120,7 @@
         <v>15</v>
       </c>
       <c r="D489" t="n">
-        <v>3948</v>
+        <v>5348</v>
       </c>
     </row>
     <row r="490">
@@ -7967,7 +11134,7 @@
         <v>6</v>
       </c>
       <c r="D490" t="n">
-        <v>10396</v>
+        <v>7977</v>
       </c>
     </row>
     <row r="491">
@@ -7981,7 +11148,7 @@
         <v>9</v>
       </c>
       <c r="D491" t="n">
-        <v>6155</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="492">
@@ -7995,7 +11162,7 @@
         <v>12</v>
       </c>
       <c r="D492" t="n">
-        <v>9524</v>
+        <v>10248</v>
       </c>
     </row>
     <row r="493">
@@ -8009,7 +11176,7 @@
         <v>15</v>
       </c>
       <c r="D493" t="n">
-        <v>5789</v>
+        <v>5411</v>
       </c>
     </row>
     <row r="494">
@@ -8023,7 +11190,7 @@
         <v>6</v>
       </c>
       <c r="D494" t="n">
-        <v>6725</v>
+        <v>6531</v>
       </c>
     </row>
     <row r="495">
@@ -8037,7 +11204,7 @@
         <v>9</v>
       </c>
       <c r="D495" t="n">
-        <v>10692</v>
+        <v>7375</v>
       </c>
     </row>
     <row r="496">
@@ -8051,7 +11218,7 @@
         <v>12</v>
       </c>
       <c r="D496" t="n">
-        <v>6594</v>
+        <v>9729</v>
       </c>
     </row>
     <row r="497">
@@ -8065,7 +11232,7 @@
         <v>15</v>
       </c>
       <c r="D497" t="n">
-        <v>8263</v>
+        <v>7091</v>
       </c>
     </row>
     <row r="498">
@@ -8079,7 +11246,7 @@
         <v>6</v>
       </c>
       <c r="D498" t="n">
-        <v>2436</v>
+        <v>10145</v>
       </c>
     </row>
     <row r="499">
@@ -8093,7 +11260,7 @@
         <v>9</v>
       </c>
       <c r="D499" t="n">
-        <v>3051</v>
+        <v>9828</v>
       </c>
     </row>
     <row r="500">
@@ -8107,7 +11274,7 @@
         <v>12</v>
       </c>
       <c r="D500" t="n">
-        <v>7150</v>
+        <v>4178</v>
       </c>
     </row>
     <row r="501">
@@ -8121,7 +11288,7 @@
         <v>15</v>
       </c>
       <c r="D501" t="n">
-        <v>8782</v>
+        <v>4114</v>
       </c>
     </row>
   </sheetData>
@@ -8130,6 +11297,690 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetData/>
+  <dimension ref="A1:J30"/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="F1">
+        <v/>
+      </c>
+      <c r="G1">
+        <v/>
+      </c>
+      <c r="H1">
+        <v/>
+      </c>
+      <c r="I1">
+        <v/>
+      </c>
+      <c r="J1">
+        <v/>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s" s="3">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="F2" t="n" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v/>
+      </c>
+      <c r="H2">
+        <v/>
+      </c>
+      <c r="I2">
+        <v/>
+      </c>
+      <c r="J2">
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="5">
+        <v>4</v>
+      </c>
+      <c r="B3" t="n" s="6">
+        <v>717726</v>
+      </c>
+      <c r="C3" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n" s="4">
+        <v>717726</v>
+      </c>
+      <c r="G3">
+        <v/>
+      </c>
+      <c r="H3">
+        <v/>
+      </c>
+      <c r="I3">
+        <v/>
+      </c>
+      <c r="J3">
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="5">
+        <v>7</v>
+      </c>
+      <c r="B4" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n" s="6">
+        <v>731891</v>
+      </c>
+      <c r="D4" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n" s="4">
+        <v>731891</v>
+      </c>
+      <c r="G4">
+        <v/>
+      </c>
+      <c r="H4">
+        <v/>
+      </c>
+      <c r="I4">
+        <v/>
+      </c>
+      <c r="J4">
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="5">
+        <v>10</v>
+      </c>
+      <c r="B5" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n" s="6">
+        <v>715083</v>
+      </c>
+      <c r="E5" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n" s="4">
+        <v>715083</v>
+      </c>
+      <c r="G5">
+        <v/>
+      </c>
+      <c r="H5">
+        <v/>
+      </c>
+      <c r="I5">
+        <v/>
+      </c>
+      <c r="J5">
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="5">
+        <v>13</v>
+      </c>
+      <c r="B6" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n" s="6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n" s="6">
+        <v>776122</v>
+      </c>
+      <c r="F6" t="n" s="4">
+        <v>776122</v>
+      </c>
+      <c r="G6">
+        <v/>
+      </c>
+      <c r="H6">
+        <v/>
+      </c>
+      <c r="I6">
+        <v/>
+      </c>
+      <c r="J6">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B7" t="n" s="6">
+        <v>717726</v>
+      </c>
+      <c r="C7" t="n" s="7">
+        <v>717726</v>
+      </c>
+      <c r="D7" s="8">
+        <v/>
+      </c>
+      <c r="E7" s="8">
+        <v/>
+      </c>
+      <c r="F7">
+        <v/>
+      </c>
+      <c r="G7">
+        <v/>
+      </c>
+      <c r="H7">
+        <v/>
+      </c>
+      <c r="I7">
+        <v/>
+      </c>
+      <c r="J7">
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="B8" t="n" s="6">
+        <v>731891</v>
+      </c>
+      <c r="C8" t="n" s="7">
+        <v>731891</v>
+      </c>
+      <c r="D8" s="8">
+        <v/>
+      </c>
+      <c r="E8" s="8">
+        <v/>
+      </c>
+      <c r="F8">
+        <v/>
+      </c>
+      <c r="G8">
+        <v/>
+      </c>
+      <c r="H8">
+        <v/>
+      </c>
+      <c r="I8">
+        <v/>
+      </c>
+      <c r="J8">
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="B9" t="n" s="6">
+        <v>715083</v>
+      </c>
+      <c r="C9" t="n" s="7">
+        <v>715083</v>
+      </c>
+      <c r="D9" s="8">
+        <v/>
+      </c>
+      <c r="E9" s="8">
+        <v/>
+      </c>
+      <c r="F9">
+        <v/>
+      </c>
+      <c r="G9">
+        <v/>
+      </c>
+      <c r="H9">
+        <v/>
+      </c>
+      <c r="I9">
+        <v/>
+      </c>
+      <c r="J9">
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="B10" t="n" s="6">
+        <v>776122</v>
+      </c>
+      <c r="C10" t="n" s="7">
+        <v>776122</v>
+      </c>
+      <c r="D10" s="8">
+        <v/>
+      </c>
+      <c r="E10" s="8">
+        <v/>
+      </c>
+      <c r="F10">
+        <v/>
+      </c>
+      <c r="G10">
+        <v/>
+      </c>
+      <c r="H10">
+        <v/>
+      </c>
+      <c r="I10">
+        <v/>
+      </c>
+      <c r="J10">
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n" s="9">
+        <v>0</v>
+      </c>
+      <c r="B11" t="n" s="9">
+        <v>3658548</v>
+      </c>
+      <c r="C11" t="n" s="9">
+        <v>3672713</v>
+      </c>
+      <c r="D11" t="n" s="9">
+        <v>715083</v>
+      </c>
+      <c r="E11" t="n" s="9">
+        <v>776122</v>
+      </c>
+      <c r="F11" t="n" s="10">
+        <v>2940822</v>
+      </c>
+      <c r="G11" t="n" s="4">
+        <v>23526576</v>
+      </c>
+      <c r="H11">
+        <v/>
+      </c>
+      <c r="I11">
+        <v/>
+      </c>
+      <c r="J11">
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="F12">
+        <v/>
+      </c>
+      <c r="G12">
+        <v/>
+      </c>
+      <c r="H12">
+        <v/>
+      </c>
+      <c r="I12">
+        <v/>
+      </c>
+      <c r="J12">
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="F13">
+        <v/>
+      </c>
+      <c r="G13">
+        <v/>
+      </c>
+      <c r="H13">
+        <v/>
+      </c>
+      <c r="I13">
+        <v/>
+      </c>
+      <c r="J13">
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="F14">
+        <v/>
+      </c>
+      <c r="G14">
+        <v/>
+      </c>
+      <c r="H14">
+        <v/>
+      </c>
+      <c r="I14">
+        <v/>
+      </c>
+      <c r="J14">
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="F15">
+        <v/>
+      </c>
+      <c r="G15">
+        <v/>
+      </c>
+      <c r="H15">
+        <v/>
+      </c>
+      <c r="I15">
+        <v/>
+      </c>
+      <c r="J15">
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="F16">
+        <v/>
+      </c>
+      <c r="G16">
+        <v/>
+      </c>
+      <c r="H16">
+        <v/>
+      </c>
+      <c r="I16">
+        <v/>
+      </c>
+      <c r="J16">
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="F17">
+        <v/>
+      </c>
+      <c r="G17">
+        <v/>
+      </c>
+      <c r="H17">
+        <v/>
+      </c>
+      <c r="I17">
+        <v/>
+      </c>
+      <c r="J17">
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="F18">
+        <v/>
+      </c>
+      <c r="G18">
+        <v/>
+      </c>
+      <c r="H18">
+        <v/>
+      </c>
+      <c r="I18">
+        <v/>
+      </c>
+      <c r="J18">
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="F19">
+        <v/>
+      </c>
+      <c r="G19">
+        <v/>
+      </c>
+      <c r="H19">
+        <v/>
+      </c>
+      <c r="I19">
+        <v/>
+      </c>
+      <c r="J19">
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="F20">
+        <v/>
+      </c>
+      <c r="G20">
+        <v/>
+      </c>
+      <c r="H20">
+        <v/>
+      </c>
+      <c r="I20">
+        <v/>
+      </c>
+      <c r="J20">
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="F21">
+        <v/>
+      </c>
+      <c r="G21">
+        <v/>
+      </c>
+      <c r="H21">
+        <v/>
+      </c>
+      <c r="I21">
+        <v/>
+      </c>
+      <c r="J21">
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="F22">
+        <v/>
+      </c>
+      <c r="G22">
+        <v/>
+      </c>
+      <c r="H22">
+        <v/>
+      </c>
+      <c r="I22">
+        <v/>
+      </c>
+      <c r="J22">
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="F23">
+        <v/>
+      </c>
+      <c r="G23">
+        <v/>
+      </c>
+      <c r="H23">
+        <v/>
+      </c>
+      <c r="I23">
+        <v/>
+      </c>
+      <c r="J23">
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="F24">
+        <v/>
+      </c>
+      <c r="G24">
+        <v/>
+      </c>
+      <c r="H24">
+        <v/>
+      </c>
+      <c r="I24">
+        <v/>
+      </c>
+      <c r="J24">
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="F25">
+        <v/>
+      </c>
+      <c r="G25">
+        <v/>
+      </c>
+      <c r="H25">
+        <v/>
+      </c>
+      <c r="I25">
+        <v/>
+      </c>
+      <c r="J25">
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="F26">
+        <v/>
+      </c>
+      <c r="G26">
+        <v/>
+      </c>
+      <c r="H26">
+        <v/>
+      </c>
+      <c r="I26">
+        <v/>
+      </c>
+      <c r="J26">
+        <v/>
+      </c>
+    </row>
+    <row r="27">
+      <c r="F27">
+        <v/>
+      </c>
+      <c r="G27">
+        <v/>
+      </c>
+      <c r="H27">
+        <v/>
+      </c>
+      <c r="I27">
+        <v/>
+      </c>
+      <c r="J27">
+        <v/>
+      </c>
+    </row>
+    <row r="28">
+      <c r="F28">
+        <v/>
+      </c>
+      <c r="G28">
+        <v/>
+      </c>
+      <c r="H28">
+        <v/>
+      </c>
+      <c r="I28">
+        <v/>
+      </c>
+      <c r="J28">
+        <v/>
+      </c>
+    </row>
+    <row r="29">
+      <c r="F29">
+        <v/>
+      </c>
+      <c r="G29">
+        <v/>
+      </c>
+      <c r="H29">
+        <v/>
+      </c>
+      <c r="I29">
+        <v/>
+      </c>
+      <c r="J29">
+        <v/>
+      </c>
+    </row>
+    <row r="30">
+      <c r="F30">
+        <v/>
+      </c>
+      <c r="G30">
+        <v/>
+      </c>
+      <c r="H30">
+        <v/>
+      </c>
+      <c r="I30">
+        <v/>
+      </c>
+      <c r="J30">
+        <v/>
+      </c>
+    </row>
+  </sheetData>
 </worksheet>
 </file>